--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3047342.954071718</v>
+        <v>3046408.457427022</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1667860.867914363</v>
+        <v>1668064.79654064</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2144211.334678759</v>
+        <v>2144211.33467876</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>190.4372651226227</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>165.4445620988175</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.03638470914571</v>
+        <v>63.54017630649427</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>341.3605449798336</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -913,10 +913,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>219.9497149780097</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>13.86039560144239</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>46.66637815986219</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -1153,7 +1153,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>140.7311431027215</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>48.44483331251597</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>112.8381367815072</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>162.3773273095652</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>302.529608289768</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>295.2835565175837</v>
       </c>
       <c r="D11" t="n">
-        <v>236.9015876761274</v>
+        <v>287.626527530984</v>
       </c>
       <c r="E11" t="n">
         <v>304.5974996701059</v>
@@ -1387,7 +1387,7 @@
         <v>315.0694058739639</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8663391571162</v>
+        <v>125.5833940236782</v>
       </c>
       <c r="I11" t="n">
         <v>42.93448877940767</v>
@@ -1429,7 +1429,7 @@
         <v>159.2348897357606</v>
       </c>
       <c r="V11" t="n">
-        <v>244.7255512390018</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>273.3288547168805</v>
@@ -1548,7 +1548,7 @@
         <v>59.95746523682637</v>
       </c>
       <c r="I13" t="n">
-        <v>37.78262349550691</v>
+        <v>37.7826234955069</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67088799977359</v>
+        <v>28.67088799977314</v>
       </c>
       <c r="S13" t="n">
         <v>106.8157560245397</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3987348933234</v>
+        <v>139.3987348933235</v>
       </c>
       <c r="U13" t="n">
-        <v>188.6241763893353</v>
+        <v>188.6241763893358</v>
       </c>
       <c r="V13" t="n">
         <v>169.3593617628691</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.529608289768</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>295.2835565175837</v>
       </c>
       <c r="D14" t="n">
-        <v>16.79486987619747</v>
+        <v>287.626527530984</v>
       </c>
       <c r="E14" t="n">
         <v>304.5974996701059</v>
@@ -1624,10 +1624,10 @@
         <v>315.0694058739639</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8663391571162</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.93448877940767</v>
+        <v>28.16992385462469</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>244.7255512390018</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.3288547168805</v>
       </c>
       <c r="X14" t="n">
         <v>291.5978890517588</v>
@@ -1773,7 +1773,7 @@
         <v>60.11659200199547</v>
       </c>
       <c r="E16" t="n">
-        <v>60.04303405487458</v>
+        <v>60.04303405487418</v>
       </c>
       <c r="F16" t="n">
         <v>61.79248547464185</v>
@@ -1785,7 +1785,7 @@
         <v>59.95746523682637</v>
       </c>
       <c r="I16" t="n">
-        <v>37.78262349550648</v>
+        <v>37.7826234955069</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>302.529608289768</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>295.2835565175837</v>
       </c>
       <c r="D17" t="n">
         <v>287.626527530984</v>
@@ -1861,10 +1861,10 @@
         <v>315.0694058739639</v>
       </c>
       <c r="H17" t="n">
-        <v>226.8663391571162</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.93448877940767</v>
+        <v>24.20592758894676</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.85331639585158</v>
+        <v>70.85331639585159</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>127.2986996033755</v>
       </c>
       <c r="U17" t="n">
         <v>159.2348897357606</v>
@@ -1906,13 +1906,13 @@
         <v>244.7255512390018</v>
       </c>
       <c r="W17" t="n">
-        <v>151.750598466173</v>
+        <v>273.3288547168805</v>
       </c>
       <c r="X17" t="n">
         <v>291.5978890517588</v>
       </c>
       <c r="Y17" t="n">
-        <v>298.5656120240899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>87.40652512198824</v>
       </c>
       <c r="I18" t="n">
-        <v>48.86515740628101</v>
+        <v>48.86515740628102</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.62697591454519</v>
+        <v>23.62697591454521</v>
       </c>
       <c r="S18" t="n">
         <v>133.5661437281669</v>
@@ -2022,7 +2022,7 @@
         <v>59.95746523682637</v>
       </c>
       <c r="I19" t="n">
-        <v>37.7826234955069</v>
+        <v>37.78262349550673</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>106.8157560245397</v>
       </c>
       <c r="T19" t="n">
-        <v>139.3987348933235</v>
+        <v>139.3987348933234</v>
       </c>
       <c r="U19" t="n">
-        <v>188.6241763893358</v>
+        <v>188.6241763893351</v>
       </c>
       <c r="V19" t="n">
         <v>169.3593617628691</v>
@@ -2086,7 +2086,7 @@
         <v>295.2835565175837</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>287.626527530984</v>
       </c>
       <c r="E20" t="n">
         <v>304.5974996701059</v>
@@ -2095,13 +2095,13 @@
         <v>318.7653041208071</v>
       </c>
       <c r="G20" t="n">
-        <v>315.0694058739639</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>226.8663391571162</v>
       </c>
       <c r="I20" t="n">
-        <v>42.93448877940764</v>
+        <v>42.93448877940767</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.85331639585155</v>
+        <v>70.85331639585158</v>
       </c>
       <c r="T20" t="n">
-        <v>127.2986996033755</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>159.2348897357606</v>
@@ -2143,13 +2143,13 @@
         <v>244.7255512390018</v>
       </c>
       <c r="W20" t="n">
-        <v>273.3288547168805</v>
+        <v>171.5364478225533</v>
       </c>
       <c r="X20" t="n">
         <v>291.5978890517588</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.03162718340688</v>
+        <v>298.5656120240899</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.39574853987331</v>
+        <v>89.39574853987334</v>
       </c>
       <c r="C22" t="n">
-        <v>74.54287679015572</v>
+        <v>74.54287679015574</v>
       </c>
       <c r="D22" t="n">
-        <v>60.11659200199544</v>
+        <v>60.11659200199547</v>
       </c>
       <c r="E22" t="n">
-        <v>60.04303405487455</v>
+        <v>60.04303405487458</v>
       </c>
       <c r="F22" t="n">
-        <v>61.79248547464182</v>
+        <v>61.79248547464185</v>
       </c>
       <c r="G22" t="n">
-        <v>72.61063614146569</v>
+        <v>72.61063614146572</v>
       </c>
       <c r="H22" t="n">
-        <v>59.95746523682656</v>
+        <v>59.95746523682637</v>
       </c>
       <c r="I22" t="n">
-        <v>37.78262349550688</v>
+        <v>37.7826234955069</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.67088799977336</v>
+        <v>28.67088799977358</v>
       </c>
       <c r="S22" t="n">
         <v>106.8157560245397</v>
       </c>
       <c r="T22" t="n">
-        <v>139.3987348933234</v>
+        <v>139.3987348933235</v>
       </c>
       <c r="U22" t="n">
-        <v>188.6241763893355</v>
+        <v>188.6241763893358</v>
       </c>
       <c r="V22" t="n">
         <v>169.3593617628691</v>
@@ -2323,7 +2323,7 @@
         <v>295.2835565175837</v>
       </c>
       <c r="D23" t="n">
-        <v>287.626527530984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>304.5974996701059</v>
@@ -2338,7 +2338,7 @@
         <v>226.8663391571162</v>
       </c>
       <c r="I23" t="n">
-        <v>42.93448877940764</v>
+        <v>42.93448877940769</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>70.85331639585159</v>
       </c>
       <c r="T23" t="n">
         <v>127.2986996033755</v>
@@ -2380,10 +2380,10 @@
         <v>244.7255512390018</v>
       </c>
       <c r="W23" t="n">
-        <v>91.61954779282404</v>
+        <v>16.7948698761977</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>291.5978890517588</v>
       </c>
       <c r="Y23" t="n">
         <v>298.5656120240899</v>
@@ -2417,7 +2417,7 @@
         <v>87.40652512198824</v>
       </c>
       <c r="I24" t="n">
-        <v>48.86515740628101</v>
+        <v>48.86515740628102</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.62697591454519</v>
+        <v>23.62697591454521</v>
       </c>
       <c r="S24" t="n">
         <v>133.5661437281669</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.39574853987331</v>
+        <v>89.39574853987334</v>
       </c>
       <c r="C25" t="n">
-        <v>74.54287679015572</v>
+        <v>74.54287679015574</v>
       </c>
       <c r="D25" t="n">
-        <v>60.11659200199544</v>
+        <v>60.11659200199547</v>
       </c>
       <c r="E25" t="n">
-        <v>60.04303405487455</v>
+        <v>60.04303405487458</v>
       </c>
       <c r="F25" t="n">
-        <v>61.79248547464182</v>
+        <v>61.79248547464185</v>
       </c>
       <c r="G25" t="n">
-        <v>72.61063614146569</v>
+        <v>72.61063614146572</v>
       </c>
       <c r="H25" t="n">
-        <v>59.95746523682634</v>
+        <v>59.95746523682637</v>
       </c>
       <c r="I25" t="n">
-        <v>37.78262349550687</v>
+        <v>37.7826234955069</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.67088799977356</v>
+        <v>28.67088799977359</v>
       </c>
       <c r="S25" t="n">
         <v>106.8157560245397</v>
       </c>
       <c r="T25" t="n">
-        <v>139.3987348933234</v>
+        <v>139.3987348933235</v>
       </c>
       <c r="U25" t="n">
         <v>188.6241763893358</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>302.529608289768</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2835565175837</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>287.626527530984</v>
@@ -2566,10 +2566,10 @@
         <v>304.5974996701059</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7653041208071</v>
+        <v>296.7546874238399</v>
       </c>
       <c r="G26" t="n">
-        <v>300.304840949181</v>
+        <v>315.0694058739639</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>28.67088799977356</v>
       </c>
       <c r="S28" t="n">
-        <v>106.8157560245397</v>
+        <v>106.8157560245394</v>
       </c>
       <c r="T28" t="n">
         <v>139.3987348933234</v>
@@ -2775,7 +2775,7 @@
         <v>169.3593617628691</v>
       </c>
       <c r="W28" t="n">
-        <v>186.5369080836191</v>
+        <v>186.5369080836192</v>
       </c>
       <c r="X28" t="n">
         <v>137.7793290303318</v>
@@ -2797,7 +2797,7 @@
         <v>295.2835565175837</v>
       </c>
       <c r="D29" t="n">
-        <v>287.626527530984</v>
+        <v>97.63105391980855</v>
       </c>
       <c r="E29" t="n">
         <v>304.5974996701059</v>
@@ -2809,7 +2809,7 @@
         <v>315.0694058739639</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8663391571162</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>42.93448877940764</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.85331639585155</v>
       </c>
       <c r="T29" t="n">
-        <v>127.2986996033755</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>159.2348897357606</v>
@@ -2857,10 +2857,10 @@
         <v>273.3288547168805</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>291.5978890517588</v>
       </c>
       <c r="Y29" t="n">
-        <v>116.8563051000332</v>
+        <v>298.5656120240899</v>
       </c>
     </row>
     <row r="30">
@@ -2970,7 +2970,7 @@
         <v>59.95746523682634</v>
       </c>
       <c r="I31" t="n">
-        <v>37.78262349550687</v>
+        <v>37.78262349550679</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>106.8157560245397</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3987348933233</v>
+        <v>139.3987348933234</v>
       </c>
       <c r="U31" t="n">
         <v>188.6241763893358</v>
@@ -3031,7 +3031,7 @@
         <v>302.529608289768</v>
       </c>
       <c r="C32" t="n">
-        <v>295.2835565175837</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>287.626527530984</v>
@@ -3049,7 +3049,7 @@
         <v>226.8663391571162</v>
       </c>
       <c r="I32" t="n">
-        <v>42.93448877940764</v>
+        <v>42.93448877940766</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.85331639585155</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>127.2986996033755</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>159.2348897357606</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>244.7255512390018</v>
       </c>
       <c r="W32" t="n">
         <v>273.3288547168805</v>
       </c>
       <c r="X32" t="n">
-        <v>291.5978890517588</v>
+        <v>113.574249593527</v>
       </c>
       <c r="Y32" t="n">
-        <v>158.3655406271857</v>
+        <v>298.5656120240899</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.39574853987331</v>
+        <v>89.39574853987332</v>
       </c>
       <c r="C34" t="n">
-        <v>74.54287679015572</v>
+        <v>74.54287679015573</v>
       </c>
       <c r="D34" t="n">
-        <v>60.11659200199544</v>
+        <v>60.11659200199546</v>
       </c>
       <c r="E34" t="n">
-        <v>60.04303405487455</v>
+        <v>60.04303405487457</v>
       </c>
       <c r="F34" t="n">
-        <v>61.79248547464182</v>
+        <v>61.79248547464184</v>
       </c>
       <c r="G34" t="n">
-        <v>72.61063614146569</v>
+        <v>72.6106361414657</v>
       </c>
       <c r="H34" t="n">
-        <v>59.95746523682634</v>
+        <v>59.95746523682636</v>
       </c>
       <c r="I34" t="n">
-        <v>37.78262349550687</v>
+        <v>37.78262349550688</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.67088799977356</v>
+        <v>28.67088799977357</v>
       </c>
       <c r="S34" t="n">
         <v>106.8157560245397</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>45.99562344908481</v>
       </c>
       <c r="C35" t="n">
         <v>295.2835565175837</v>
       </c>
       <c r="D35" t="n">
-        <v>287.626527530984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>190.2652951915823</v>
+        <v>304.5974996701059</v>
       </c>
       <c r="F35" t="n">
         <v>318.7653041208071</v>
@@ -3286,7 +3286,7 @@
         <v>226.8663391571162</v>
       </c>
       <c r="I35" t="n">
-        <v>42.93448877940767</v>
+        <v>42.93448877940766</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>70.85331639585158</v>
+        <v>70.85331639585156</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>127.2986996033755</v>
       </c>
       <c r="U35" t="n">
         <v>159.2348897357606</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.39574853987334</v>
+        <v>89.39574853987332</v>
       </c>
       <c r="C37" t="n">
-        <v>74.54287679015574</v>
+        <v>74.54287679015573</v>
       </c>
       <c r="D37" t="n">
-        <v>60.11659200199547</v>
+        <v>60.11659200199546</v>
       </c>
       <c r="E37" t="n">
-        <v>60.04303405487458</v>
+        <v>60.04303405487457</v>
       </c>
       <c r="F37" t="n">
-        <v>61.79248547464185</v>
+        <v>61.79248547464184</v>
       </c>
       <c r="G37" t="n">
-        <v>72.61063614146572</v>
+        <v>72.61063614146575</v>
       </c>
       <c r="H37" t="n">
-        <v>59.95746523682637</v>
+        <v>59.95746523682635</v>
       </c>
       <c r="I37" t="n">
-        <v>37.78262349550691</v>
+        <v>37.7826234955069</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.67088799977358</v>
+        <v>28.67088799977357</v>
       </c>
       <c r="S37" t="n">
-        <v>106.8157560245398</v>
+        <v>106.8157560245397</v>
       </c>
       <c r="T37" t="n">
         <v>139.3987348933234</v>
       </c>
       <c r="U37" t="n">
-        <v>188.624176389336</v>
+        <v>188.6241763893353</v>
       </c>
       <c r="V37" t="n">
         <v>169.3593617628691</v>
@@ -3517,13 +3517,13 @@
         <v>318.7653041208071</v>
       </c>
       <c r="G38" t="n">
-        <v>245.7226508729115</v>
+        <v>315.0694058739639</v>
       </c>
       <c r="H38" t="n">
         <v>226.8663391571162</v>
       </c>
       <c r="I38" t="n">
-        <v>42.93448877940767</v>
+        <v>42.93448877940766</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>70.85331639585156</v>
       </c>
       <c r="T38" t="n">
-        <v>127.2986996033755</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>33.97096601922796</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>244.7255512390018</v>
       </c>
       <c r="W38" t="n">
         <v>273.3288547168805</v>
       </c>
       <c r="X38" t="n">
-        <v>291.5978890517588</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>298.5656120240899</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.39574853987334</v>
+        <v>89.39574853987332</v>
       </c>
       <c r="C40" t="n">
-        <v>74.54287679015574</v>
+        <v>74.54287679015573</v>
       </c>
       <c r="D40" t="n">
-        <v>60.11659200199547</v>
+        <v>60.11659200199546</v>
       </c>
       <c r="E40" t="n">
-        <v>60.04303405487458</v>
+        <v>60.04303405487457</v>
       </c>
       <c r="F40" t="n">
-        <v>61.79248547464185</v>
+        <v>61.79248547464184</v>
       </c>
       <c r="G40" t="n">
-        <v>72.61063614146572</v>
+        <v>72.6106361414657</v>
       </c>
       <c r="H40" t="n">
-        <v>59.95746523682637</v>
+        <v>59.95746523682636</v>
       </c>
       <c r="I40" t="n">
-        <v>37.7826234955069</v>
+        <v>37.78262349550688</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.67088799977358</v>
+        <v>28.67088799977357</v>
       </c>
       <c r="S40" t="n">
         <v>106.8157560245397</v>
       </c>
       <c r="T40" t="n">
-        <v>139.3987348933235</v>
+        <v>139.3987348933234</v>
       </c>
       <c r="U40" t="n">
         <v>188.6241763893358</v>
@@ -3742,19 +3742,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>133.7864672416913</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>326.8469207385532</v>
       </c>
       <c r="H41" t="n">
         <v>320.8265291216312</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.51674264501764</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1950797002755</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.9176552013413</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>131.7428134600218</v>
       </c>
       <c r="J43" t="n">
-        <v>13.70689464327232</v>
+        <v>30.02589850348282</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>122.6310779642885</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7759459890547</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>233.3589248578384</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>221.3763221886622</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>346.1420765079947</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0295958384789</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8265291216312</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.8946787439226</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>164.8135063603665</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2588895678904</v>
       </c>
       <c r="U44" t="n">
-        <v>199.648010113254</v>
+        <v>253.1950797002755</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>99.79695027288741</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7428134600218</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>30.02589850348282</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6310779642885</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7759459890547</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3589248578384</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>207.0733077514268</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1477.712697044439</v>
+        <v>1186.795194319237</v>
       </c>
       <c r="C2" t="n">
-        <v>1084.53719554737</v>
+        <v>793.6196928221681</v>
       </c>
       <c r="D2" t="n">
-        <v>1084.53719554737</v>
+        <v>408.1785640388358</v>
       </c>
       <c r="E2" t="n">
-        <v>892.1763216861347</v>
+        <v>408.1785640388358</v>
       </c>
       <c r="F2" t="n">
-        <v>475.2818832161124</v>
+        <v>395.3245296092176</v>
       </c>
       <c r="G2" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H2" t="n">
         <v>62.11912770411553</v>
@@ -4354,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T2" t="n">
-        <v>2901.449916432349</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U2" t="n">
-        <v>2645.697186866948</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V2" t="n">
-        <v>2645.697186866948</v>
+        <v>2540.348973468711</v>
       </c>
       <c r="W2" t="n">
-        <v>2274.698151835235</v>
+        <v>2373.233254176977</v>
       </c>
       <c r="X2" t="n">
-        <v>2274.698151835235</v>
+        <v>1983.780649110033</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.207442755836</v>
+        <v>1587.289940030634</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C3" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D3" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E3" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G3" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I3" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J3" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="K3" t="n">
-        <v>381.858273766342</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="L3" t="n">
-        <v>596.176270190801</v>
+        <v>1271.186936128453</v>
       </c>
       <c r="M3" t="n">
-        <v>1223.947919817482</v>
+        <v>1898.958585755135</v>
       </c>
       <c r="N3" t="n">
-        <v>1223.947919817482</v>
+        <v>2355.071011059905</v>
       </c>
       <c r="O3" t="n">
-        <v>1740.468202408463</v>
+        <v>2871.591293650886</v>
       </c>
       <c r="P3" t="n">
-        <v>2146.089571124861</v>
+        <v>2871.591293650886</v>
       </c>
       <c r="Q3" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R3" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S3" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T3" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U3" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V3" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W3" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X3" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y3" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.11912770411553</v>
+        <v>2818.662327753234</v>
       </c>
       <c r="C4" t="n">
-        <v>62.11912770411553</v>
+        <v>2818.662327753234</v>
       </c>
       <c r="D4" t="n">
-        <v>62.11912770411553</v>
+        <v>2818.662327753234</v>
       </c>
       <c r="E4" t="n">
-        <v>62.11912770411553</v>
+        <v>2818.662327753234</v>
       </c>
       <c r="F4" t="n">
-        <v>62.11912770411553</v>
+        <v>2661.336392966206</v>
       </c>
       <c r="G4" t="n">
-        <v>62.11912770411553</v>
+        <v>2493.082339065652</v>
       </c>
       <c r="H4" t="n">
-        <v>62.11912770411553</v>
+        <v>2337.603788027146</v>
       </c>
       <c r="I4" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J4" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K4" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L4" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M4" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N4" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O4" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P4" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q4" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R4" t="n">
-        <v>839.6651608782449</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S4" t="n">
-        <v>636.8490770607943</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T4" t="n">
-        <v>401.1300252290284</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U4" t="n">
-        <v>115.6912334709294</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V4" t="n">
-        <v>62.11912770411553</v>
+        <v>3041.77438893659</v>
       </c>
       <c r="W4" t="n">
-        <v>62.11912770411553</v>
+        <v>3041.77438893659</v>
       </c>
       <c r="X4" t="n">
-        <v>62.11912770411553</v>
+        <v>3041.77438893659</v>
       </c>
       <c r="Y4" t="n">
-        <v>62.11912770411553</v>
+        <v>2818.662327753234</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2032.743979359421</v>
+        <v>1655.268392747842</v>
       </c>
       <c r="C5" t="n">
-        <v>1639.568477862351</v>
+        <v>1655.268392747842</v>
       </c>
       <c r="D5" t="n">
-        <v>1294.75984656959</v>
+        <v>1655.268392747842</v>
       </c>
       <c r="E5" t="n">
-        <v>892.1763216861347</v>
+        <v>1252.684867864387</v>
       </c>
       <c r="F5" t="n">
-        <v>475.2818832161124</v>
+        <v>835.7904293943644</v>
       </c>
       <c r="G5" t="n">
-        <v>62.11912770411553</v>
+        <v>422.6276738823676</v>
       </c>
       <c r="H5" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I5" t="n">
         <v>62.11912770411553</v>
@@ -4594,25 +4594,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T5" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U5" t="n">
-        <v>2422.196584426364</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="V5" t="n">
-        <v>2422.196584426364</v>
+        <v>2812.210741925897</v>
       </c>
       <c r="W5" t="n">
-        <v>2422.196584426364</v>
+        <v>2441.211706894184</v>
       </c>
       <c r="X5" t="n">
-        <v>2032.743979359421</v>
+        <v>2051.759101827241</v>
       </c>
       <c r="Y5" t="n">
-        <v>2032.743979359421</v>
+        <v>1655.268392747842</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M6" t="n">
-        <v>1173.45686322911</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N6" t="n">
-        <v>1458.313011372373</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O6" t="n">
-        <v>1974.833293963354</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P6" t="n">
         <v>2380.454662679751</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>225.5918232409357</v>
+        <v>731.2203758373341</v>
       </c>
       <c r="C7" t="n">
-        <v>225.5918232409357</v>
+        <v>561.0152579033233</v>
       </c>
       <c r="D7" t="n">
-        <v>225.5918232409357</v>
+        <v>405.3821448058382</v>
       </c>
       <c r="E7" t="n">
-        <v>225.5918232409357</v>
+        <v>249.8233326650406</v>
       </c>
       <c r="F7" t="n">
-        <v>225.5918232409357</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="G7" t="n">
-        <v>225.5918232409357</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="H7" t="n">
-        <v>225.5918232409357</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="I7" t="n">
         <v>92.49739787801357</v>
@@ -4752,25 +4752,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>525.0310145964513</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U7" t="n">
-        <v>239.5922228383523</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V7" t="n">
-        <v>225.5918232409357</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W7" t="n">
-        <v>225.5918232409357</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X7" t="n">
-        <v>225.5918232409357</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.5918232409357</v>
+        <v>916.4283945286354</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2004.284025786432</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="C8" t="n">
-        <v>2004.284025786432</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D8" t="n">
-        <v>1618.8428970031</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E8" t="n">
-        <v>1216.259372119644</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F8" t="n">
-        <v>799.3649336496217</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G8" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H8" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I8" t="n">
         <v>62.11912770411553</v>
@@ -4828,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>2850.203655640375</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V8" t="n">
-        <v>2850.203655640375</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="W8" t="n">
-        <v>2850.203655640375</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="X8" t="n">
-        <v>2801.269480577228</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="Y8" t="n">
-        <v>2404.778771497829</v>
+        <v>2535.796644191037</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>787.6208502301403</v>
       </c>
       <c r="J9" t="n">
-        <v>787.6208502301403</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="K9" t="n">
-        <v>787.6208502301403</v>
+        <v>1220.474978512094</v>
       </c>
       <c r="L9" t="n">
-        <v>1271.186936128453</v>
+        <v>1704.041064410407</v>
       </c>
       <c r="M9" t="n">
-        <v>1898.958585755135</v>
+        <v>2331.812714037089</v>
       </c>
       <c r="N9" t="n">
-        <v>2554.736556965694</v>
+        <v>2700.335016489379</v>
       </c>
       <c r="O9" t="n">
         <v>2700.335016489379</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>963.5661502456679</v>
+        <v>248.1305109754988</v>
       </c>
       <c r="C10" t="n">
-        <v>963.5661502456679</v>
+        <v>248.1305109754988</v>
       </c>
       <c r="D10" t="n">
-        <v>807.9330371481826</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="E10" t="n">
-        <v>652.3742250073851</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="F10" t="n">
-        <v>495.0482902203581</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="G10" t="n">
-        <v>381.0703742794417</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="I10" t="n">
         <v>92.49739787801357</v>
@@ -4989,25 +4989,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>963.5661502456679</v>
+        <v>799.5486479127737</v>
       </c>
       <c r="T10" t="n">
-        <v>963.5661502456679</v>
+        <v>799.5486479127737</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>514.1098561546746</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>248.1305109754988</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>248.1305109754988</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5661502456679</v>
+        <v>248.1305109754988</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.5661502456679</v>
+        <v>248.1305109754988</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1521.886490804652</v>
+        <v>1769.084017308695</v>
       </c>
       <c r="C11" t="n">
-        <v>1521.886490804652</v>
+        <v>1470.817798604065</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.591957798463</v>
+        <v>1180.285952613172</v>
       </c>
       <c r="E11" t="n">
-        <v>974.9177157074469</v>
+        <v>872.6117105221558</v>
       </c>
       <c r="F11" t="n">
-        <v>652.9325600298639</v>
+        <v>550.6265548445729</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6806349046477</v>
+        <v>232.3746297193567</v>
       </c>
       <c r="H11" t="n">
         <v>105.5227165641263</v>
@@ -5041,10 +5041,10 @@
         <v>62.15454607987608</v>
       </c>
       <c r="J11" t="n">
-        <v>206.933055256244</v>
+        <v>206.9330552562442</v>
       </c>
       <c r="K11" t="n">
-        <v>566.1083535773134</v>
+        <v>566.1083535773132</v>
       </c>
       <c r="L11" t="n">
         <v>1059.668007272187</v>
@@ -5077,16 +5077,16 @@
         <v>2946.883981028389</v>
       </c>
       <c r="V11" t="n">
-        <v>2699.686454524347</v>
+        <v>2946.883981028389</v>
       </c>
       <c r="W11" t="n">
-        <v>2423.596702285073</v>
+        <v>2670.794228789116</v>
       </c>
       <c r="X11" t="n">
-        <v>2129.05338001057</v>
+        <v>2376.250906514612</v>
       </c>
       <c r="Y11" t="n">
-        <v>1827.47195372361</v>
+        <v>2074.669480227652</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>62.15454607987608</v>
       </c>
       <c r="J12" t="n">
-        <v>62.15454607987608</v>
+        <v>175.2695282996035</v>
       </c>
       <c r="K12" t="n">
-        <v>382.0247409709041</v>
+        <v>495.0086743618299</v>
       </c>
       <c r="L12" t="n">
-        <v>865.767038191971</v>
+        <v>978.5747602601432</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.744318120955</v>
+        <v>1458.047821875968</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.393594669997</v>
+        <v>1458.047821875968</v>
       </c>
       <c r="O12" t="n">
-        <v>2145.913877260978</v>
+        <v>1974.761194773492</v>
       </c>
       <c r="P12" t="n">
-        <v>2145.913877260978</v>
+        <v>2380.38256348989</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.38256348989</v>
@@ -5205,31 +5205,31 @@
         <v>300.3841719365712</v>
       </c>
       <c r="L13" t="n">
-        <v>557.6335542733111</v>
+        <v>557.6335542733112</v>
       </c>
       <c r="M13" t="n">
-        <v>837.052373806317</v>
+        <v>837.0523738063172</v>
       </c>
       <c r="N13" t="n">
         <v>1113.366713059221</v>
       </c>
       <c r="O13" t="n">
-        <v>1369.188237211977</v>
+        <v>1369.188237211978</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.167280286147</v>
+        <v>1582.167280286148</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.667037520422</v>
       </c>
       <c r="R13" t="n">
-        <v>1649.706544591357</v>
+        <v>1649.706544591358</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.811841536267</v>
+        <v>1541.811841536268</v>
       </c>
       <c r="T13" t="n">
-        <v>1401.005038613718</v>
+        <v>1401.005038613719</v>
       </c>
       <c r="U13" t="n">
         <v>1210.475567513379</v>
@@ -5238,7 +5238,7 @@
         <v>1039.405505126643</v>
       </c>
       <c r="W13" t="n">
-        <v>850.9843858502597</v>
+        <v>850.9843858502599</v>
       </c>
       <c r="X13" t="n">
         <v>711.8133464256823</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1597.822691529555</v>
+        <v>1627.318402209239</v>
       </c>
       <c r="C14" t="n">
-        <v>1299.556472824925</v>
+        <v>1329.052183504609</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.591957798463</v>
+        <v>1038.520337513716</v>
       </c>
       <c r="E14" t="n">
-        <v>974.9177157074469</v>
+        <v>730.8460954227</v>
       </c>
       <c r="F14" t="n">
-        <v>652.9325600298639</v>
+        <v>408.8609397451172</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6806349046477</v>
+        <v>90.60901461990102</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5227165641263</v>
+        <v>90.60901461990102</v>
       </c>
       <c r="I14" t="n">
         <v>62.15454607987608</v>
@@ -5317,13 +5317,13 @@
         <v>2499.532903009976</v>
       </c>
       <c r="W14" t="n">
-        <v>2499.532903009976</v>
+        <v>2223.443150770703</v>
       </c>
       <c r="X14" t="n">
-        <v>2204.989580735472</v>
+        <v>1928.899828496199</v>
       </c>
       <c r="Y14" t="n">
-        <v>1903.408154448513</v>
+        <v>1627.318402209239</v>
       </c>
     </row>
     <row r="15">
@@ -5360,16 +5360,16 @@
         <v>62.15454607987608</v>
       </c>
       <c r="K15" t="n">
-        <v>381.8936921421025</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4597780404158</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.231427667097</v>
+        <v>690.1318260088597</v>
       </c>
       <c r="N15" t="n">
-        <v>1493.231427667097</v>
+        <v>1346.120869943951</v>
       </c>
       <c r="O15" t="n">
         <v>1740.396103218602</v>
@@ -5421,16 +5421,16 @@
         <v>357.2921666892852</v>
       </c>
       <c r="E16" t="n">
-        <v>296.642637340927</v>
+        <v>296.6426373409274</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2259853463393</v>
+        <v>234.2259853463397</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8819084357679</v>
+        <v>160.8819084357683</v>
       </c>
       <c r="H16" t="n">
-        <v>100.3188122369533</v>
+        <v>100.3188122369538</v>
       </c>
       <c r="I16" t="n">
         <v>62.15454607987608</v>
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1573.123803789356</v>
+        <v>1623.314365577241</v>
       </c>
       <c r="C17" t="n">
-        <v>1573.123803789356</v>
+        <v>1325.048146872611</v>
       </c>
       <c r="D17" t="n">
-        <v>1282.591957798463</v>
+        <v>1034.516300881718</v>
       </c>
       <c r="E17" t="n">
-        <v>974.9177157074469</v>
+        <v>726.8420587907021</v>
       </c>
       <c r="F17" t="n">
-        <v>652.9325600298639</v>
+        <v>404.8569031131192</v>
       </c>
       <c r="G17" t="n">
-        <v>334.6806349046477</v>
+        <v>86.60497798790311</v>
       </c>
       <c r="H17" t="n">
-        <v>105.5227165641263</v>
+        <v>86.60497798790311</v>
       </c>
       <c r="I17" t="n">
         <v>62.15454607987608</v>
       </c>
       <c r="J17" t="n">
-        <v>206.9330552562442</v>
+        <v>206.933055256244</v>
       </c>
       <c r="K17" t="n">
         <v>566.1083535773132</v>
@@ -5545,22 +5545,22 @@
         <v>3036.158297533348</v>
       </c>
       <c r="T17" t="n">
-        <v>3036.158297533348</v>
+        <v>2907.573752479433</v>
       </c>
       <c r="U17" t="n">
-        <v>2875.314974567933</v>
+        <v>2746.730429514018</v>
       </c>
       <c r="V17" t="n">
-        <v>2628.117448063891</v>
+        <v>2499.532903009976</v>
       </c>
       <c r="W17" t="n">
-        <v>2474.834015269777</v>
+        <v>2223.443150770703</v>
       </c>
       <c r="X17" t="n">
-        <v>2180.290692995273</v>
+        <v>1928.899828496199</v>
       </c>
       <c r="Y17" t="n">
-        <v>1878.709266708313</v>
+        <v>1928.899828496199</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>62.15454607987608</v>
       </c>
       <c r="J18" t="n">
-        <v>62.15454607987608</v>
+        <v>175.2695282996035</v>
       </c>
       <c r="K18" t="n">
-        <v>381.8936921421025</v>
+        <v>175.2695282996035</v>
       </c>
       <c r="L18" t="n">
-        <v>381.8936921421025</v>
+        <v>175.2695282996035</v>
       </c>
       <c r="M18" t="n">
-        <v>802.4629409719522</v>
+        <v>567.6936863859866</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.240912182511</v>
+        <v>1223.682730321078</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.761194773492</v>
+        <v>1740.396103218602</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.38256348989</v>
+        <v>2146.017471934999</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.38256348989</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>493.311832135903</v>
+        <v>493.3118321359025</v>
       </c>
       <c r="C19" t="n">
-        <v>418.0159969943315</v>
+        <v>418.0159969943311</v>
       </c>
       <c r="D19" t="n">
-        <v>357.2921666892856</v>
+        <v>357.2921666892851</v>
       </c>
       <c r="E19" t="n">
-        <v>296.6426373409274</v>
+        <v>296.642637340927</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2259853463397</v>
+        <v>234.2259853463393</v>
       </c>
       <c r="G19" t="n">
-        <v>160.8819084357683</v>
+        <v>160.8819084357681</v>
       </c>
       <c r="H19" t="n">
-        <v>100.3188122369538</v>
+        <v>100.3188122369536</v>
       </c>
       <c r="I19" t="n">
         <v>62.15454607987608</v>
@@ -5676,34 +5676,34 @@
         <v>125.4494946262978</v>
       </c>
       <c r="K19" t="n">
-        <v>300.3841719365712</v>
+        <v>300.3841719365711</v>
       </c>
       <c r="L19" t="n">
-        <v>557.6335542733112</v>
+        <v>557.6335542733111</v>
       </c>
       <c r="M19" t="n">
-        <v>837.0523738063172</v>
+        <v>837.052373806317</v>
       </c>
       <c r="N19" t="n">
         <v>1113.366713059221</v>
       </c>
       <c r="O19" t="n">
-        <v>1369.188237211978</v>
+        <v>1369.188237211977</v>
       </c>
       <c r="P19" t="n">
-        <v>1582.167280286148</v>
+        <v>1582.167280286147</v>
       </c>
       <c r="Q19" t="n">
-        <v>1678.667037520422</v>
+        <v>1678.667037520421</v>
       </c>
       <c r="R19" t="n">
-        <v>1649.706544591358</v>
+        <v>1649.706544591357</v>
       </c>
       <c r="S19" t="n">
-        <v>1541.811841536268</v>
+        <v>1541.811841536266</v>
       </c>
       <c r="T19" t="n">
-        <v>1401.005038613719</v>
+        <v>1401.005038613717</v>
       </c>
       <c r="U19" t="n">
         <v>1210.475567513379</v>
@@ -5712,13 +5712,13 @@
         <v>1039.405505126643</v>
       </c>
       <c r="W19" t="n">
-        <v>850.9843858502599</v>
+        <v>850.9843858502595</v>
       </c>
       <c r="X19" t="n">
-        <v>711.8133464256823</v>
+        <v>711.8133464256819</v>
       </c>
       <c r="Y19" t="n">
-        <v>583.6105680347649</v>
+        <v>583.6105680347645</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1580.858176503093</v>
+        <v>1553.13809736877</v>
       </c>
       <c r="C20" t="n">
-        <v>1282.591957798463</v>
+        <v>1254.87187866414</v>
       </c>
       <c r="D20" t="n">
-        <v>1282.591957798463</v>
+        <v>964.3400326732467</v>
       </c>
       <c r="E20" t="n">
-        <v>974.9177157074466</v>
+        <v>656.6657905822306</v>
       </c>
       <c r="F20" t="n">
-        <v>652.9325600298638</v>
+        <v>334.6806349046477</v>
       </c>
       <c r="G20" t="n">
         <v>334.6806349046477</v>
       </c>
       <c r="H20" t="n">
-        <v>105.5227165641262</v>
+        <v>105.5227165641263</v>
       </c>
       <c r="I20" t="n">
         <v>62.15454607987608</v>
       </c>
       <c r="J20" t="n">
-        <v>206.9330552562442</v>
+        <v>206.9330552562441</v>
       </c>
       <c r="K20" t="n">
         <v>566.1083535773133</v>
@@ -5782,22 +5782,22 @@
         <v>3036.158297533348</v>
       </c>
       <c r="T20" t="n">
-        <v>2907.573752479433</v>
+        <v>3036.158297533348</v>
       </c>
       <c r="U20" t="n">
-        <v>2746.730429514018</v>
+        <v>2875.314974567933</v>
       </c>
       <c r="V20" t="n">
-        <v>2499.532903009976</v>
+        <v>2628.117448063891</v>
       </c>
       <c r="W20" t="n">
-        <v>2223.443150770703</v>
+        <v>2454.84830884919</v>
       </c>
       <c r="X20" t="n">
-        <v>1928.899828496199</v>
+        <v>2160.304986574687</v>
       </c>
       <c r="Y20" t="n">
-        <v>1886.44363942205</v>
+        <v>1858.723560287727</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>62.15454607987608</v>
       </c>
       <c r="J21" t="n">
-        <v>62.15454607987608</v>
+        <v>175.2695282996035</v>
       </c>
       <c r="K21" t="n">
-        <v>62.15454607987608</v>
+        <v>175.2695282996035</v>
       </c>
       <c r="L21" t="n">
-        <v>545.896843300943</v>
+        <v>658.8356141979167</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.668492927624</v>
+        <v>1223.682730321078</v>
       </c>
       <c r="N21" t="n">
-        <v>1629.304099037475</v>
+        <v>1223.682730321078</v>
       </c>
       <c r="O21" t="n">
-        <v>2146.017471934999</v>
+        <v>1740.396103218602</v>
       </c>
       <c r="P21" t="n">
         <v>2146.017471934999</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1922.372098609284</v>
+        <v>493.311832135903</v>
       </c>
       <c r="C22" t="n">
-        <v>1847.076263467713</v>
+        <v>418.0159969943315</v>
       </c>
       <c r="D22" t="n">
-        <v>1786.352433162667</v>
+        <v>357.2921666892856</v>
       </c>
       <c r="E22" t="n">
-        <v>1725.702903814309</v>
+        <v>296.6426373409274</v>
       </c>
       <c r="F22" t="n">
-        <v>1663.286251819721</v>
+        <v>234.2259853463397</v>
       </c>
       <c r="G22" t="n">
-        <v>1589.94217490915</v>
+        <v>160.8819084357683</v>
       </c>
       <c r="H22" t="n">
-        <v>1529.379078710335</v>
+        <v>100.3188122369538</v>
       </c>
       <c r="I22" t="n">
-        <v>1491.214812553258</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="J22" t="n">
-        <v>1554.50976109968</v>
+        <v>125.4494946262978</v>
       </c>
       <c r="K22" t="n">
-        <v>1729.444438409953</v>
+        <v>300.3841719365712</v>
       </c>
       <c r="L22" t="n">
-        <v>1986.693820746693</v>
+        <v>557.6335542733112</v>
       </c>
       <c r="M22" t="n">
-        <v>2266.112640279699</v>
+        <v>837.0523738063172</v>
       </c>
       <c r="N22" t="n">
-        <v>2542.426979532603</v>
+        <v>1113.366713059221</v>
       </c>
       <c r="O22" t="n">
-        <v>2798.248503685359</v>
+        <v>1369.188237211978</v>
       </c>
       <c r="P22" t="n">
-        <v>3011.227546759529</v>
+        <v>1582.167280286148</v>
       </c>
       <c r="Q22" t="n">
-        <v>3107.727303993804</v>
+        <v>1678.667037520422</v>
       </c>
       <c r="R22" t="n">
-        <v>3078.76681106474</v>
+        <v>1649.706544591358</v>
       </c>
       <c r="S22" t="n">
-        <v>2970.872108009649</v>
+        <v>1541.811841536268</v>
       </c>
       <c r="T22" t="n">
-        <v>2830.0653050871</v>
+        <v>1401.005038613719</v>
       </c>
       <c r="U22" t="n">
-        <v>2639.535833986761</v>
+        <v>1210.475567513379</v>
       </c>
       <c r="V22" t="n">
-        <v>2468.465771600025</v>
+        <v>1039.405505126643</v>
       </c>
       <c r="W22" t="n">
-        <v>2280.044652323642</v>
+        <v>850.9843858502599</v>
       </c>
       <c r="X22" t="n">
-        <v>2140.873612899064</v>
+        <v>711.8133464256823</v>
       </c>
       <c r="Y22" t="n">
-        <v>2012.670834508146</v>
+        <v>583.6105680347649</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1871.390022493986</v>
+        <v>1580.858176503093</v>
       </c>
       <c r="C23" t="n">
-        <v>1573.123803789356</v>
+        <v>1282.591957798463</v>
       </c>
       <c r="D23" t="n">
         <v>1282.591957798463</v>
       </c>
       <c r="E23" t="n">
-        <v>974.9177157074466</v>
+        <v>974.9177157074469</v>
       </c>
       <c r="F23" t="n">
-        <v>652.9325600298638</v>
+        <v>652.9325600298639</v>
       </c>
       <c r="G23" t="n">
         <v>334.6806349046477</v>
       </c>
       <c r="H23" t="n">
-        <v>105.5227165641262</v>
+        <v>105.5227165641263</v>
       </c>
       <c r="I23" t="n">
         <v>62.15454607987608</v>
@@ -6016,25 +6016,25 @@
         <v>3107.727303993804</v>
       </c>
       <c r="S23" t="n">
-        <v>3107.727303993804</v>
+        <v>3036.158297533348</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.142758939889</v>
+        <v>2907.573752479433</v>
       </c>
       <c r="U23" t="n">
-        <v>2818.299435974474</v>
+        <v>2746.730429514018</v>
       </c>
       <c r="V23" t="n">
-        <v>2571.101909470432</v>
+        <v>2499.532903009976</v>
       </c>
       <c r="W23" t="n">
-        <v>2478.556911699903</v>
+        <v>2482.568387983514</v>
       </c>
       <c r="X23" t="n">
-        <v>2478.556911699903</v>
+        <v>2188.02506570901</v>
       </c>
       <c r="Y23" t="n">
-        <v>2176.975485412943</v>
+        <v>1886.443639422051</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>62.15454607987608</v>
       </c>
       <c r="L24" t="n">
-        <v>545.7206319781893</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.492281604871</v>
+        <v>567.6936863859866</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.27025281543</v>
+        <v>1223.682730321078</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.790535406411</v>
+        <v>1740.396103218602</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.38256348989</v>
+        <v>2146.017471934999</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.38256348989</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>493.3118321359028</v>
+        <v>493.311832135903</v>
       </c>
       <c r="C25" t="n">
-        <v>418.0159969943314</v>
+        <v>418.0159969943315</v>
       </c>
       <c r="D25" t="n">
-        <v>357.2921666892855</v>
+        <v>357.2921666892856</v>
       </c>
       <c r="E25" t="n">
-        <v>296.6426373409273</v>
+        <v>296.6426373409274</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2259853463396</v>
+        <v>234.2259853463397</v>
       </c>
       <c r="G25" t="n">
-        <v>160.8819084357682</v>
+        <v>160.8819084357683</v>
       </c>
       <c r="H25" t="n">
-        <v>100.3188122369537</v>
+        <v>100.3188122369538</v>
       </c>
       <c r="I25" t="n">
         <v>62.15454607987608</v>
       </c>
       <c r="J25" t="n">
-        <v>125.4494946262979</v>
+        <v>125.4494946262978</v>
       </c>
       <c r="K25" t="n">
         <v>300.3841719365712</v>
@@ -6156,10 +6156,10 @@
         <v>557.6335542733112</v>
       </c>
       <c r="M25" t="n">
-        <v>837.0523738063173</v>
+        <v>837.0523738063172</v>
       </c>
       <c r="N25" t="n">
-        <v>1113.366713059222</v>
+        <v>1113.366713059221</v>
       </c>
       <c r="O25" t="n">
         <v>1369.188237211978</v>
@@ -6174,10 +6174,10 @@
         <v>1649.706544591358</v>
       </c>
       <c r="S25" t="n">
-        <v>1541.811841536267</v>
+        <v>1541.811841536268</v>
       </c>
       <c r="T25" t="n">
-        <v>1401.005038613718</v>
+        <v>1401.005038613719</v>
       </c>
       <c r="U25" t="n">
         <v>1210.475567513379</v>
@@ -6186,13 +6186,13 @@
         <v>1039.405505126643</v>
       </c>
       <c r="W25" t="n">
-        <v>850.9843858502596</v>
+        <v>850.9843858502599</v>
       </c>
       <c r="X25" t="n">
-        <v>711.8133464256821</v>
+        <v>711.8133464256823</v>
       </c>
       <c r="Y25" t="n">
-        <v>583.6105680347648</v>
+        <v>583.6105680347649</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1627.318402209239</v>
+        <v>1321.732939290282</v>
       </c>
       <c r="C26" t="n">
-        <v>1329.052183504609</v>
+        <v>1321.732939290282</v>
       </c>
       <c r="D26" t="n">
-        <v>1038.520337513716</v>
+        <v>1031.201093299389</v>
       </c>
       <c r="E26" t="n">
-        <v>730.8460954227</v>
+        <v>723.5268512083726</v>
       </c>
       <c r="F26" t="n">
-        <v>408.8609397451172</v>
+        <v>423.7746416893424</v>
       </c>
       <c r="G26" t="n">
         <v>105.5227165641262</v>
@@ -6305,22 +6305,22 @@
         <v>62.15454607987608</v>
       </c>
       <c r="J27" t="n">
-        <v>62.15454607987608</v>
+        <v>175.2695282996035</v>
       </c>
       <c r="K27" t="n">
-        <v>62.15454607987608</v>
+        <v>495.1397231906315</v>
       </c>
       <c r="L27" t="n">
-        <v>545.896843300943</v>
+        <v>978.8820204116984</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.668492927624</v>
+        <v>1606.859300340682</v>
       </c>
       <c r="N27" t="n">
-        <v>1457.892849881825</v>
+        <v>1606.859300340682</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.60622277935</v>
+        <v>2123.572673238206</v>
       </c>
       <c r="P27" t="n">
         <v>2380.38256348989</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1871.390022493986</v>
+        <v>1450.317484344196</v>
       </c>
       <c r="C29" t="n">
-        <v>1573.123803789356</v>
+        <v>1152.051265639566</v>
       </c>
       <c r="D29" t="n">
-        <v>1282.591957798463</v>
+        <v>1053.434039457941</v>
       </c>
       <c r="E29" t="n">
-        <v>974.9177157074466</v>
+        <v>745.7597973669253</v>
       </c>
       <c r="F29" t="n">
-        <v>652.9325600298638</v>
+        <v>423.7746416893424</v>
       </c>
       <c r="G29" t="n">
-        <v>334.6806349046477</v>
+        <v>105.5227165641262</v>
       </c>
       <c r="H29" t="n">
         <v>105.5227165641262</v>
@@ -6490,25 +6490,25 @@
         <v>3107.727303993804</v>
       </c>
       <c r="S29" t="n">
-        <v>3107.727303993804</v>
+        <v>3036.158297533348</v>
       </c>
       <c r="T29" t="n">
-        <v>2979.142758939889</v>
+        <v>3036.158297533348</v>
       </c>
       <c r="U29" t="n">
-        <v>2818.299435974474</v>
+        <v>2875.314974567933</v>
       </c>
       <c r="V29" t="n">
-        <v>2571.101909470432</v>
+        <v>2628.117448063891</v>
       </c>
       <c r="W29" t="n">
-        <v>2295.012157231159</v>
+        <v>2352.027695824617</v>
       </c>
       <c r="X29" t="n">
-        <v>2295.012157231159</v>
+        <v>2057.484373550114</v>
       </c>
       <c r="Y29" t="n">
-        <v>2176.975485412943</v>
+        <v>1755.902947263154</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>62.15454607987608</v>
       </c>
       <c r="J30" t="n">
-        <v>175.3462027386184</v>
+        <v>175.2695282996035</v>
       </c>
       <c r="K30" t="n">
-        <v>495.2163976296464</v>
+        <v>495.1397231906315</v>
       </c>
       <c r="L30" t="n">
-        <v>978.9586948507133</v>
+        <v>495.1397231906315</v>
       </c>
       <c r="M30" t="n">
-        <v>978.9586948507133</v>
+        <v>567.5900917119652</v>
       </c>
       <c r="N30" t="n">
-        <v>1457.892849881825</v>
+        <v>1223.579135647057</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.60622277935</v>
+        <v>1740.292508544581</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.38256348989</v>
+        <v>2145.913877260978</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.38256348989</v>
@@ -6600,22 +6600,22 @@
         <v>493.3118321359028</v>
       </c>
       <c r="C31" t="n">
-        <v>418.0159969943314</v>
+        <v>418.0159969943313</v>
       </c>
       <c r="D31" t="n">
-        <v>357.2921666892855</v>
+        <v>357.2921666892854</v>
       </c>
       <c r="E31" t="n">
         <v>296.6426373409273</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2259853463396</v>
+        <v>234.2259853463395</v>
       </c>
       <c r="G31" t="n">
-        <v>160.8819084357682</v>
+        <v>160.8819084357681</v>
       </c>
       <c r="H31" t="n">
-        <v>100.3188122369537</v>
+        <v>100.3188122369536</v>
       </c>
       <c r="I31" t="n">
         <v>62.15454607987608</v>
@@ -6660,13 +6660,13 @@
         <v>1039.405505126643</v>
       </c>
       <c r="W31" t="n">
-        <v>850.9843858502596</v>
+        <v>850.9843858502595</v>
       </c>
       <c r="X31" t="n">
-        <v>711.8133464256821</v>
+        <v>711.813346425682</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.6105680347648</v>
+        <v>583.6105680347647</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1871.390022493986</v>
+        <v>1573.123803789356</v>
       </c>
       <c r="C32" t="n">
         <v>1573.123803789356</v>
@@ -6700,16 +6700,16 @@
         <v>62.15454607987608</v>
       </c>
       <c r="J32" t="n">
-        <v>206.933055256244</v>
+        <v>206.9330552562442</v>
       </c>
       <c r="K32" t="n">
-        <v>566.1083535773132</v>
+        <v>566.1083535773137</v>
       </c>
       <c r="L32" t="n">
         <v>1059.668007272187</v>
       </c>
       <c r="M32" t="n">
-        <v>1605.935243635566</v>
+        <v>1605.935243635567</v>
       </c>
       <c r="N32" t="n">
         <v>2134.017173191911</v>
@@ -6727,25 +6727,25 @@
         <v>3107.727303993804</v>
       </c>
       <c r="S32" t="n">
-        <v>3036.158297533348</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="T32" t="n">
-        <v>2907.573752479433</v>
+        <v>2979.142758939889</v>
       </c>
       <c r="U32" t="n">
-        <v>2907.573752479433</v>
+        <v>2818.299435974474</v>
       </c>
       <c r="V32" t="n">
-        <v>2907.573752479433</v>
+        <v>2571.101909470432</v>
       </c>
       <c r="W32" t="n">
-        <v>2631.48400024016</v>
+        <v>2295.012157231159</v>
       </c>
       <c r="X32" t="n">
-        <v>2336.940677965656</v>
+        <v>2180.290692995273</v>
       </c>
       <c r="Y32" t="n">
-        <v>2176.975485412943</v>
+        <v>1878.709266708313</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>62.15454607987608</v>
       </c>
       <c r="K33" t="n">
-        <v>381.8936921421025</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="L33" t="n">
-        <v>865.4597780404158</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="M33" t="n">
-        <v>1493.231427667097</v>
+        <v>567.4351197178223</v>
       </c>
       <c r="N33" t="n">
-        <v>1863.862280898909</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="O33" t="n">
-        <v>2380.38256348989</v>
+        <v>1740.137536550438</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.38256348989</v>
+        <v>2145.913877260978</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.38256348989</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1922.372098609284</v>
+        <v>493.3118321359029</v>
       </c>
       <c r="C34" t="n">
-        <v>1847.076263467713</v>
+        <v>418.0159969943314</v>
       </c>
       <c r="D34" t="n">
-        <v>1786.352433162667</v>
+        <v>357.2921666892855</v>
       </c>
       <c r="E34" t="n">
-        <v>1725.702903814309</v>
+        <v>296.6426373409274</v>
       </c>
       <c r="F34" t="n">
-        <v>1663.286251819721</v>
+        <v>234.2259853463397</v>
       </c>
       <c r="G34" t="n">
-        <v>1589.94217490915</v>
+        <v>160.8819084357683</v>
       </c>
       <c r="H34" t="n">
-        <v>1529.379078710336</v>
+        <v>100.3188122369537</v>
       </c>
       <c r="I34" t="n">
-        <v>1491.214812553258</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="J34" t="n">
-        <v>1554.50976109968</v>
+        <v>125.4494946262979</v>
       </c>
       <c r="K34" t="n">
-        <v>1729.444438409953</v>
+        <v>300.3841719365714</v>
       </c>
       <c r="L34" t="n">
-        <v>1986.693820746693</v>
+        <v>557.6335542733115</v>
       </c>
       <c r="M34" t="n">
-        <v>2266.112640279699</v>
+        <v>837.0523738063174</v>
       </c>
       <c r="N34" t="n">
-        <v>2542.426979532604</v>
+        <v>1113.366713059222</v>
       </c>
       <c r="O34" t="n">
-        <v>2798.24850368536</v>
+        <v>1369.188237211978</v>
       </c>
       <c r="P34" t="n">
-        <v>3011.22754675953</v>
+        <v>1582.167280286148</v>
       </c>
       <c r="Q34" t="n">
-        <v>3107.727303993804</v>
+        <v>1678.667037520422</v>
       </c>
       <c r="R34" t="n">
-        <v>3078.76681106474</v>
+        <v>1649.706544591358</v>
       </c>
       <c r="S34" t="n">
-        <v>2970.872108009649</v>
+        <v>1541.811841536267</v>
       </c>
       <c r="T34" t="n">
-        <v>2830.0653050871</v>
+        <v>1401.005038613718</v>
       </c>
       <c r="U34" t="n">
-        <v>2639.535833986761</v>
+        <v>1210.475567513379</v>
       </c>
       <c r="V34" t="n">
-        <v>2468.465771600024</v>
+        <v>1039.405505126643</v>
       </c>
       <c r="W34" t="n">
-        <v>2280.044652323641</v>
+        <v>850.9843858502596</v>
       </c>
       <c r="X34" t="n">
-        <v>2140.873612899064</v>
+        <v>711.8133464256821</v>
       </c>
       <c r="Y34" t="n">
-        <v>2012.670834508146</v>
+        <v>583.6105680347648</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1755.902947263154</v>
+        <v>1580.858176503093</v>
       </c>
       <c r="C35" t="n">
-        <v>1457.636728558524</v>
+        <v>1282.591957798463</v>
       </c>
       <c r="D35" t="n">
-        <v>1167.104882567631</v>
+        <v>1282.591957798463</v>
       </c>
       <c r="E35" t="n">
-        <v>974.9177157074469</v>
+        <v>974.9177157074466</v>
       </c>
       <c r="F35" t="n">
-        <v>652.9325600298639</v>
+        <v>652.9325600298638</v>
       </c>
       <c r="G35" t="n">
         <v>334.6806349046477</v>
       </c>
       <c r="H35" t="n">
-        <v>105.5227165641263</v>
+        <v>105.5227165641262</v>
       </c>
       <c r="I35" t="n">
         <v>62.15454607987608</v>
       </c>
       <c r="J35" t="n">
-        <v>206.9330552562441</v>
+        <v>206.9330552562442</v>
       </c>
       <c r="K35" t="n">
-        <v>566.1083535773133</v>
+        <v>566.1083535773132</v>
       </c>
       <c r="L35" t="n">
         <v>1059.668007272187</v>
@@ -6967,22 +6967,22 @@
         <v>3036.158297533348</v>
       </c>
       <c r="T35" t="n">
-        <v>3036.158297533348</v>
+        <v>2907.573752479433</v>
       </c>
       <c r="U35" t="n">
-        <v>2875.314974567933</v>
+        <v>2746.730429514018</v>
       </c>
       <c r="V35" t="n">
-        <v>2628.117448063891</v>
+        <v>2499.532903009976</v>
       </c>
       <c r="W35" t="n">
-        <v>2352.027695824617</v>
+        <v>2223.443150770703</v>
       </c>
       <c r="X35" t="n">
-        <v>2057.484373550114</v>
+        <v>1928.899828496199</v>
       </c>
       <c r="Y35" t="n">
-        <v>1755.902947263154</v>
+        <v>1627.318402209239</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1588.82793547033</v>
+        <v>861.4831949664161</v>
       </c>
       <c r="C36" t="n">
-        <v>1438.173705030422</v>
+        <v>710.8289645265083</v>
       </c>
       <c r="D36" t="n">
-        <v>1308.084737651902</v>
+        <v>580.7399971479887</v>
       </c>
       <c r="E36" t="n">
-        <v>1171.63824676279</v>
+        <v>444.2935062588764</v>
       </c>
       <c r="F36" t="n">
-        <v>1047.206440645922</v>
+        <v>319.8617001420082</v>
       </c>
       <c r="G36" t="n">
-        <v>927.1474507537584</v>
+        <v>199.802710249845</v>
       </c>
       <c r="H36" t="n">
-        <v>838.8580314386188</v>
+        <v>111.5132909347054</v>
       </c>
       <c r="I36" t="n">
-        <v>789.4992865837895</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="J36" t="n">
-        <v>789.4992865837895</v>
+        <v>175.2695282996035</v>
       </c>
       <c r="K36" t="n">
-        <v>1109.238432646016</v>
+        <v>175.2695282996035</v>
       </c>
       <c r="L36" t="n">
-        <v>1592.804518544329</v>
+        <v>659.0118255206703</v>
       </c>
       <c r="M36" t="n">
-        <v>1592.804518544329</v>
+        <v>659.0118255206703</v>
       </c>
       <c r="N36" t="n">
-        <v>2185.585652686425</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="O36" t="n">
-        <v>2702.105935277406</v>
+        <v>1740.137536550438</v>
       </c>
       <c r="P36" t="n">
-        <v>3107.727303993804</v>
+        <v>2145.913877260978</v>
       </c>
       <c r="Q36" t="n">
-        <v>3107.727303993804</v>
+        <v>2380.38256348989</v>
       </c>
       <c r="R36" t="n">
-        <v>3083.861671756889</v>
+        <v>2356.516931252976</v>
       </c>
       <c r="S36" t="n">
-        <v>2948.946375061771</v>
+        <v>2221.601634557857</v>
       </c>
       <c r="T36" t="n">
-        <v>2771.965900826726</v>
+        <v>2044.621160322812</v>
       </c>
       <c r="U36" t="n">
-        <v>2561.902811981418</v>
+        <v>1834.558071477505</v>
       </c>
       <c r="V36" t="n">
-        <v>2339.362810352485</v>
+        <v>1612.018069848572</v>
       </c>
       <c r="W36" t="n">
-        <v>2109.245564485772</v>
+        <v>1381.900823981859</v>
       </c>
       <c r="X36" t="n">
-        <v>1919.938486835784</v>
+        <v>1192.59374633187</v>
       </c>
       <c r="Y36" t="n">
-        <v>1740.624269911291</v>
+        <v>1013.279529407377</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1922.372098609285</v>
+        <v>493.3118321359029</v>
       </c>
       <c r="C37" t="n">
-        <v>1847.076263467713</v>
+        <v>418.0159969943315</v>
       </c>
       <c r="D37" t="n">
-        <v>1786.352433162667</v>
+        <v>357.2921666892856</v>
       </c>
       <c r="E37" t="n">
-        <v>1725.702903814309</v>
+        <v>296.6426373409274</v>
       </c>
       <c r="F37" t="n">
-        <v>1663.286251819721</v>
+        <v>234.2259853463397</v>
       </c>
       <c r="G37" t="n">
-        <v>1589.94217490915</v>
+        <v>160.8819084357683</v>
       </c>
       <c r="H37" t="n">
-        <v>1529.379078710335</v>
+        <v>100.3188122369538</v>
       </c>
       <c r="I37" t="n">
-        <v>1491.214812553258</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="J37" t="n">
-        <v>1554.509761099679</v>
+        <v>125.4494946262977</v>
       </c>
       <c r="K37" t="n">
-        <v>1729.444438409953</v>
+        <v>300.3841719365711</v>
       </c>
       <c r="L37" t="n">
-        <v>1986.693820746693</v>
+        <v>557.6335542733111</v>
       </c>
       <c r="M37" t="n">
-        <v>2266.112640279699</v>
+        <v>837.0523738063171</v>
       </c>
       <c r="N37" t="n">
-        <v>2542.426979532603</v>
+        <v>1113.366713059221</v>
       </c>
       <c r="O37" t="n">
-        <v>2798.248503685359</v>
+        <v>1369.188237211977</v>
       </c>
       <c r="P37" t="n">
-        <v>3011.227546759529</v>
+        <v>1582.167280286147</v>
       </c>
       <c r="Q37" t="n">
-        <v>3107.727303993804</v>
+        <v>1678.667037520422</v>
       </c>
       <c r="R37" t="n">
-        <v>3078.76681106474</v>
+        <v>1649.706544591357</v>
       </c>
       <c r="S37" t="n">
-        <v>2970.872108009649</v>
+        <v>1541.811841536267</v>
       </c>
       <c r="T37" t="n">
-        <v>2830.0653050871</v>
+        <v>1401.005038613718</v>
       </c>
       <c r="U37" t="n">
-        <v>2639.535833986761</v>
+        <v>1210.475567513379</v>
       </c>
       <c r="V37" t="n">
-        <v>2468.465771600024</v>
+        <v>1039.405505126643</v>
       </c>
       <c r="W37" t="n">
-        <v>2280.044652323641</v>
+        <v>850.9843858502597</v>
       </c>
       <c r="X37" t="n">
-        <v>2140.873612899064</v>
+        <v>711.8133464256822</v>
       </c>
       <c r="Y37" t="n">
-        <v>2012.670834508147</v>
+        <v>583.6105680347649</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1801.342795220196</v>
+        <v>1871.390022493986</v>
       </c>
       <c r="C38" t="n">
-        <v>1503.076576515565</v>
+        <v>1573.123803789356</v>
       </c>
       <c r="D38" t="n">
-        <v>1212.544730524673</v>
+        <v>1282.591957798463</v>
       </c>
       <c r="E38" t="n">
-        <v>904.8704884336564</v>
+        <v>974.9177157074466</v>
       </c>
       <c r="F38" t="n">
-        <v>582.8853327560735</v>
+        <v>652.9325600298638</v>
       </c>
       <c r="G38" t="n">
         <v>334.6806349046477</v>
       </c>
       <c r="H38" t="n">
-        <v>105.5227165641263</v>
+        <v>105.5227165641262</v>
       </c>
       <c r="I38" t="n">
         <v>62.15454607987608</v>
       </c>
       <c r="J38" t="n">
-        <v>206.9330552562441</v>
+        <v>206.933055256244</v>
       </c>
       <c r="K38" t="n">
-        <v>566.1083535773133</v>
+        <v>566.1083535773132</v>
       </c>
       <c r="L38" t="n">
         <v>1059.668007272187</v>
@@ -7192,7 +7192,7 @@
         <v>2574.312337350826</v>
       </c>
       <c r="P38" t="n">
-        <v>2922.717946817715</v>
+        <v>2922.717946817714</v>
       </c>
       <c r="Q38" t="n">
         <v>3107.727303993804</v>
@@ -7201,25 +7201,25 @@
         <v>3107.727303993804</v>
       </c>
       <c r="S38" t="n">
-        <v>3107.727303993804</v>
+        <v>3036.158297533348</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.14275893989</v>
+        <v>3036.158297533348</v>
       </c>
       <c r="U38" t="n">
-        <v>2979.14275893989</v>
+        <v>3001.844190443218</v>
       </c>
       <c r="V38" t="n">
-        <v>2979.14275893989</v>
+        <v>2754.646663939176</v>
       </c>
       <c r="W38" t="n">
-        <v>2703.053006700616</v>
+        <v>2478.556911699903</v>
       </c>
       <c r="X38" t="n">
-        <v>2408.509684426112</v>
+        <v>2478.556911699903</v>
       </c>
       <c r="Y38" t="n">
-        <v>2106.928258139153</v>
+        <v>2176.975485412943</v>
       </c>
     </row>
     <row r="39">
@@ -7259,19 +7259,19 @@
         <v>62.15454607987608</v>
       </c>
       <c r="L39" t="n">
-        <v>174.691291345271</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="M39" t="n">
-        <v>802.4629409719522</v>
+        <v>567.4351197178223</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.240912182511</v>
+        <v>1223.424163652914</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.761194773492</v>
+        <v>1740.137536550438</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.38256348989</v>
+        <v>2145.913877260978</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.38256348989</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>493.311832135903</v>
+        <v>493.3118321359029</v>
       </c>
       <c r="C40" t="n">
-        <v>418.0159969943315</v>
+        <v>418.0159969943314</v>
       </c>
       <c r="D40" t="n">
-        <v>357.2921666892856</v>
+        <v>357.2921666892855</v>
       </c>
       <c r="E40" t="n">
         <v>296.6426373409274</v>
@@ -7326,22 +7326,22 @@
         <v>160.8819084357683</v>
       </c>
       <c r="H40" t="n">
-        <v>100.3188122369538</v>
+        <v>100.3188122369537</v>
       </c>
       <c r="I40" t="n">
         <v>62.15454607987608</v>
       </c>
       <c r="J40" t="n">
-        <v>125.4494946262978</v>
+        <v>125.4494946262979</v>
       </c>
       <c r="K40" t="n">
-        <v>300.3841719365715</v>
+        <v>300.3841719365714</v>
       </c>
       <c r="L40" t="n">
-        <v>557.6335542733116</v>
+        <v>557.6335542733115</v>
       </c>
       <c r="M40" t="n">
-        <v>837.0523738063175</v>
+        <v>837.0523738063174</v>
       </c>
       <c r="N40" t="n">
         <v>1113.366713059222</v>
@@ -7359,10 +7359,10 @@
         <v>1649.706544591358</v>
       </c>
       <c r="S40" t="n">
-        <v>1541.811841536268</v>
+        <v>1541.811841536267</v>
       </c>
       <c r="T40" t="n">
-        <v>1401.005038613719</v>
+        <v>1401.005038613718</v>
       </c>
       <c r="U40" t="n">
         <v>1210.475567513379</v>
@@ -7371,13 +7371,13 @@
         <v>1039.405505126643</v>
       </c>
       <c r="W40" t="n">
-        <v>850.9843858502599</v>
+        <v>850.9843858502596</v>
       </c>
       <c r="X40" t="n">
-        <v>711.8133464256823</v>
+        <v>711.8133464256821</v>
       </c>
       <c r="Y40" t="n">
-        <v>583.6105680347649</v>
+        <v>583.6105680347648</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>914.5350944085844</v>
+        <v>1921.289244136064</v>
       </c>
       <c r="C41" t="n">
-        <v>521.3595929115149</v>
+        <v>1921.289244136064</v>
       </c>
       <c r="D41" t="n">
-        <v>386.2217472128369</v>
+        <v>1535.848115352732</v>
       </c>
       <c r="E41" t="n">
-        <v>386.2217472128369</v>
+        <v>1133.264590469277</v>
       </c>
       <c r="F41" t="n">
-        <v>386.2217472128369</v>
+        <v>716.3701519992543</v>
       </c>
       <c r="G41" t="n">
         <v>386.2217472128369</v>
@@ -7411,7 +7411,7 @@
         <v>62.15454607987608</v>
       </c>
       <c r="J41" t="n">
-        <v>206.9330552562442</v>
+        <v>206.933055256244</v>
       </c>
       <c r="K41" t="n">
         <v>566.1083535773132</v>
@@ -7435,28 +7435,28 @@
         <v>3107.727303993804</v>
       </c>
       <c r="R41" t="n">
-        <v>3069.831604352372</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="S41" t="n">
-        <v>3069.831604352372</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="T41" t="n">
-        <v>3069.831604352372</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="U41" t="n">
-        <v>2814.078998594518</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="V41" t="n">
-        <v>2471.972189298036</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="W41" t="n">
-        <v>2100.973154266323</v>
+        <v>3107.727303993804</v>
       </c>
       <c r="X41" t="n">
-        <v>1711.52054919938</v>
+        <v>2718.27469892686</v>
       </c>
       <c r="Y41" t="n">
-        <v>1315.029840119981</v>
+        <v>2321.783989847461</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>62.15454607987608</v>
       </c>
       <c r="J42" t="n">
-        <v>175.3462027386184</v>
+        <v>96.17164223175644</v>
       </c>
       <c r="K42" t="n">
-        <v>175.3462027386184</v>
+        <v>96.17164223175644</v>
       </c>
       <c r="L42" t="n">
-        <v>658.9122886369316</v>
+        <v>579.9139394528233</v>
       </c>
       <c r="M42" t="n">
-        <v>802.2698506654093</v>
+        <v>1207.891219381807</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.047821875968</v>
+        <v>1863.669190592366</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.761194773492</v>
+        <v>2380.38256348989</v>
       </c>
       <c r="P42" t="n">
         <v>2380.38256348989</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>401.8381252358896</v>
+        <v>381.0296644282053</v>
       </c>
       <c r="C43" t="n">
-        <v>231.6330073018788</v>
+        <v>381.0296644282053</v>
       </c>
       <c r="D43" t="n">
-        <v>75.99989420439357</v>
+        <v>381.0296644282053</v>
       </c>
       <c r="E43" t="n">
-        <v>75.99989420439357</v>
+        <v>381.0296644282053</v>
       </c>
       <c r="F43" t="n">
-        <v>75.99989420439357</v>
+        <v>381.0296644282053</v>
       </c>
       <c r="G43" t="n">
-        <v>75.99989420439357</v>
+        <v>381.0296644282053</v>
       </c>
       <c r="H43" t="n">
-        <v>75.99989420439357</v>
+        <v>225.5572854369515</v>
       </c>
       <c r="I43" t="n">
-        <v>75.99989420439357</v>
+        <v>92.48373648743448</v>
       </c>
       <c r="J43" t="n">
         <v>62.15454607987608</v>
@@ -7596,25 +7596,25 @@
         <v>840.3581967984079</v>
       </c>
       <c r="S43" t="n">
-        <v>637.5542109508779</v>
+        <v>840.3581967984079</v>
       </c>
       <c r="T43" t="n">
-        <v>401.8381252358896</v>
+        <v>604.6421110834196</v>
       </c>
       <c r="U43" t="n">
-        <v>401.8381252358896</v>
+        <v>604.6421110834196</v>
       </c>
       <c r="V43" t="n">
-        <v>401.8381252358896</v>
+        <v>604.6421110834196</v>
       </c>
       <c r="W43" t="n">
-        <v>401.8381252358896</v>
+        <v>381.0296644282053</v>
       </c>
       <c r="X43" t="n">
-        <v>401.8381252358896</v>
+        <v>381.0296644282053</v>
       </c>
       <c r="Y43" t="n">
-        <v>401.8381252358896</v>
+        <v>381.0296644282053</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2397.477548764372</v>
+        <v>1352.406027729107</v>
       </c>
       <c r="C44" t="n">
-        <v>2004.302047267302</v>
+        <v>1352.406027729107</v>
       </c>
       <c r="D44" t="n">
-        <v>1618.86091848397</v>
+        <v>966.9648989457744</v>
       </c>
       <c r="E44" t="n">
-        <v>1216.277393600515</v>
+        <v>617.3264378265878</v>
       </c>
       <c r="F44" t="n">
-        <v>799.3829551304923</v>
+        <v>200.4319993565656</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2217472128369</v>
+        <v>200.4319993565656</v>
       </c>
       <c r="H44" t="n">
-        <v>62.15454607987608</v>
+        <v>200.4319993565656</v>
       </c>
       <c r="I44" t="n">
         <v>62.15454607987608</v>
@@ -7651,7 +7651,7 @@
         <v>206.9330552562442</v>
       </c>
       <c r="K44" t="n">
-        <v>566.108353577313</v>
+        <v>566.1083535773132</v>
       </c>
       <c r="L44" t="n">
         <v>1059.668007272187</v>
@@ -7678,22 +7678,22 @@
         <v>2941.249014740908</v>
       </c>
       <c r="T44" t="n">
-        <v>2941.249014740908</v>
+        <v>2717.755186894554</v>
       </c>
       <c r="U44" t="n">
-        <v>2739.584358060853</v>
+        <v>2462.0025811367</v>
       </c>
       <c r="V44" t="n">
-        <v>2397.477548764372</v>
+        <v>2119.895771840218</v>
       </c>
       <c r="W44" t="n">
-        <v>2397.477548764372</v>
+        <v>1748.896736808505</v>
       </c>
       <c r="X44" t="n">
-        <v>2397.477548764372</v>
+        <v>1748.896736808505</v>
       </c>
       <c r="Y44" t="n">
-        <v>2397.477548764372</v>
+        <v>1352.406027729107</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>62.15454607987608</v>
       </c>
       <c r="K45" t="n">
-        <v>62.15454607987608</v>
+        <v>96.54094386105322</v>
       </c>
       <c r="L45" t="n">
-        <v>545.7206319781893</v>
+        <v>580.1070297593665</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.697911907173</v>
+        <v>1208.08430968835</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.475883117732</v>
+        <v>1863.862280898909</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.996165708713</v>
+        <v>2380.38256348989</v>
       </c>
       <c r="P45" t="n">
-        <v>2345.996165708713</v>
+        <v>2380.38256348989</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.38256348989</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>637.5542109508781</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="C46" t="n">
-        <v>637.5542109508781</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="D46" t="n">
-        <v>481.9210978533928</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="E46" t="n">
-        <v>326.3622857125953</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="F46" t="n">
-        <v>326.3622857125953</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="G46" t="n">
-        <v>326.3622857125953</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="H46" t="n">
-        <v>225.5572854369515</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="I46" t="n">
-        <v>92.48373648743448</v>
+        <v>62.15454607987608</v>
       </c>
       <c r="J46" t="n">
         <v>62.15454607987608</v>
@@ -7821,37 +7821,37 @@
         <v>677.9894122533204</v>
       </c>
       <c r="O46" t="n">
-        <v>840.7903483412068</v>
+        <v>840.7903483412067</v>
       </c>
       <c r="P46" t="n">
-        <v>960.748803350507</v>
+        <v>960.7488033505069</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.2279725199115</v>
+        <v>964.2279725199114</v>
       </c>
       <c r="R46" t="n">
-        <v>840.358196798408</v>
+        <v>964.2279725199114</v>
       </c>
       <c r="S46" t="n">
-        <v>637.5542109508781</v>
+        <v>964.2279725199114</v>
       </c>
       <c r="T46" t="n">
-        <v>637.5542109508781</v>
+        <v>728.5118868049232</v>
       </c>
       <c r="U46" t="n">
-        <v>637.5542109508781</v>
+        <v>728.5118868049232</v>
       </c>
       <c r="V46" t="n">
-        <v>637.5542109508781</v>
+        <v>728.5118868049232</v>
       </c>
       <c r="W46" t="n">
-        <v>637.5542109508781</v>
+        <v>519.3469294802496</v>
       </c>
       <c r="X46" t="n">
-        <v>637.5542109508781</v>
+        <v>285.2666072632327</v>
       </c>
       <c r="Y46" t="n">
-        <v>637.5542109508781</v>
+        <v>62.15454607987608</v>
       </c>
     </row>
   </sheetData>
@@ -7996,7 +7996,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8060,22 +8060,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>306.543171528089</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>546.0917343741364</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8294,25 +8294,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>173.3576105420024</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8531,10 +8531,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8543,10 +8543,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>747.7741039759435</v>
+        <v>457.616862805975</v>
       </c>
       <c r="O9" t="n">
-        <v>239.7567099229146</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8777,19 +8777,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>576.7033459036808</v>
       </c>
       <c r="N12" t="n">
-        <v>222.178379343571</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9008,19 +9008,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>342.3488473247523</v>
+        <v>490.9453702774251</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9242,16 +9242,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>517.2045451097662</v>
+        <v>488.775160520406</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9263,7 +9263,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>89.59693533333335</v>
@@ -9488,16 +9488,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>662.9397645979594</v>
       </c>
       <c r="N21" t="n">
-        <v>545.610098823713</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9722,10 +9722,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>603.0327183181104</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9734,10 +9734,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.0248073278797</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.88351207104404</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,10 +9953,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.36700840503539</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.46456277898835</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9965,16 +9965,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>372.4674229089152</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>346.4872943664702</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.88351207104404</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10196,13 +10196,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>165.5693124749016</v>
       </c>
       <c r="N30" t="n">
-        <v>569.1439866229668</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.88351207104404</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10430,25 +10430,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>602.7715398654192</v>
       </c>
       <c r="N33" t="n">
-        <v>459.746712078219</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,10 +10664,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10676,7 +10676,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>684.1409352199203</v>
+        <v>655.4855857150185</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.88351207104404</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10907,10 +10907,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>203.7338269229737</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>602.7715398654192</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
@@ -10922,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,16 +11138,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>116.8051605170509</v>
       </c>
       <c r="K42" t="n">
-        <v>89.46456277898835</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>237.1927402598954</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11156,10 +11156,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.88351207104404</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11378,7 +11378,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>124.3306704658355</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11396,7 +11396,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>125.7218882884161</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2835565175837</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>50.72493985485656</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>101.282945133438</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.7255512390018</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.529608289768</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>270.8316576547865</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8663391571162</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.76456492478298</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>273.3288547168805</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>295.2835565175837</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>226.8663391571162</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>18.72856119046092</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>127.2986996033755</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>121.5782562507075</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>298.5656120240899</v>
       </c>
     </row>
     <row r="18">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>287.626527530984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>315.0694058739639</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>127.2986996033755</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>101.7924068943272</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>256.533984840683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>287.626527530984</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.85331639585155</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>181.7093069240564</v>
+        <v>256.5339848406828</v>
       </c>
       <c r="X23" t="n">
-        <v>291.5978890517588</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.529608289768</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>295.2835565175837</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>22.01061669696719</v>
       </c>
       <c r="G26" t="n">
-        <v>14.76456492478297</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>226.8663391571162</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>189.9954736111754</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>226.8663391571162</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85331639585155</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>127.2986996033755</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5978890517588</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>181.7093069240567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>295.2835565175837</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>70.85331639585156</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>159.2348897357606</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>244.7255512390018</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>178.0236394582318</v>
       </c>
       <c r="Y32" t="n">
-        <v>140.2000713969043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>302.529608289768</v>
+        <v>256.5339848406832</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>287.626527530984</v>
       </c>
       <c r="E35" t="n">
-        <v>114.3322044785237</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>127.2986996033755</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>69.34675500105246</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>70.85331639585158</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>127.2986996033755</v>
       </c>
       <c r="U38" t="n">
-        <v>159.2348897357606</v>
+        <v>125.2639237165326</v>
       </c>
       <c r="V38" t="n">
-        <v>244.7255512390018</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>291.5978890517588</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>247.8002502538077</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0295958384789</v>
+        <v>82.18267509992569</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.51674264501764</v>
       </c>
       <c r="S41" t="n">
         <v>164.8135063603665</v>
@@ -25684,13 +25684,13 @@
         <v>221.2588895678904</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1950797002755</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -25803,13 +25803,13 @@
         <v>166.5708261059806</v>
       </c>
       <c r="H43" t="n">
-        <v>153.9176552013413</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>131.7428134600218</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.31900386021051</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7759459890547</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>59.12077585947196</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25867,25 +25867,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>52.41561312662623</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0295958384789</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8265291216312</v>
       </c>
       <c r="I44" t="n">
-        <v>136.8946787439226</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2588895678904</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>53.5470695870215</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,10 +26028,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -26040,13 +26040,13 @@
         <v>166.5708261059806</v>
       </c>
       <c r="H46" t="n">
-        <v>54.12070492845388</v>
+        <v>153.9176552013413</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>131.7428134600218</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>30.02589850348282</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6310779642885</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7759459890547</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3589248578384</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>282.5843663538507</v>
@@ -26085,13 +26085,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>73.42379029670735</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>610212.1820297777</v>
+        <v>610212.1820297778</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>610212.1820297778</v>
+        <v>610212.1820297779</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>610212.1820297779</v>
+        <v>610212.1820297778</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>610212.1820297779</v>
+        <v>610212.1820297778</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>610212.1820297779</v>
+        <v>610212.1820297778</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>610212.1820297778</v>
+        <v>610212.1820297779</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>458156.0964254389</v>
+        <v>458156.0964254387</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>458156.0964254387</v>
+        <v>458156.0964254389</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>613129.4055174135</v>
+        <v>613129.4055174133</v>
       </c>
       <c r="C2" t="n">
-        <v>613129.4055174135</v>
+        <v>613129.4055174133</v>
       </c>
       <c r="D2" t="n">
-        <v>613129.4055174135</v>
+        <v>613129.4055174133</v>
       </c>
       <c r="E2" t="n">
-        <v>576311.5052503468</v>
+        <v>576311.5052503458</v>
       </c>
       <c r="F2" t="n">
-        <v>576311.5052503454</v>
+        <v>576311.5052503456</v>
       </c>
       <c r="G2" t="n">
         <v>576311.5052503467</v>
       </c>
       <c r="H2" t="n">
+        <v>576311.5052503468</v>
+      </c>
+      <c r="I2" t="n">
         <v>576311.505250347</v>
       </c>
-      <c r="I2" t="n">
-        <v>576311.5052503467</v>
-      </c>
       <c r="J2" t="n">
+        <v>576311.5052503459</v>
+      </c>
+      <c r="K2" t="n">
         <v>576311.5052503456</v>
-      </c>
-      <c r="K2" t="n">
-        <v>576311.5052503457</v>
       </c>
       <c r="L2" t="n">
         <v>576311.5052503468</v>
       </c>
       <c r="M2" t="n">
-        <v>576311.5052503467</v>
+        <v>576311.5052503468</v>
       </c>
       <c r="N2" t="n">
-        <v>576311.5052503466</v>
+        <v>576311.505250347</v>
       </c>
       <c r="O2" t="n">
-        <v>432702.979957359</v>
+        <v>432702.9799573587</v>
       </c>
       <c r="P2" t="n">
-        <v>432702.979957359</v>
+        <v>432702.9799573587</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75606.52981275665</v>
+        <v>75606.52981275663</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110.3300114129261</v>
+        <v>110.330011412924</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,31 +26429,31 @@
         <v>97203.53342017811</v>
       </c>
       <c r="F4" t="n">
-        <v>97203.53342017811</v>
+        <v>97203.53342017812</v>
       </c>
       <c r="G4" t="n">
         <v>97203.53342017812</v>
       </c>
       <c r="H4" t="n">
+        <v>97203.53342017812</v>
+      </c>
+      <c r="I4" t="n">
+        <v>97203.53342017812</v>
+      </c>
+      <c r="J4" t="n">
+        <v>97203.53342017817</v>
+      </c>
+      <c r="K4" t="n">
         <v>97203.53342017818</v>
       </c>
-      <c r="I4" t="n">
-        <v>97203.53342017818</v>
-      </c>
-      <c r="J4" t="n">
-        <v>97203.53342017818</v>
-      </c>
-      <c r="K4" t="n">
-        <v>97203.53342017817</v>
-      </c>
       <c r="L4" t="n">
-        <v>97203.53342017817</v>
+        <v>97203.53342017814</v>
       </c>
       <c r="M4" t="n">
         <v>97203.53342017812</v>
       </c>
       <c r="N4" t="n">
-        <v>97203.53342017812</v>
+        <v>97203.53342017814</v>
       </c>
       <c r="O4" t="n">
         <v>549.0457904586274</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150270.4691604073</v>
+        <v>150270.4691604071</v>
       </c>
       <c r="C6" t="n">
-        <v>410489.8245802361</v>
+        <v>410489.8245802359</v>
       </c>
       <c r="D6" t="n">
-        <v>410489.8245802361</v>
+        <v>410489.8245802359</v>
       </c>
       <c r="E6" t="n">
-        <v>348356.539491537</v>
+        <v>348248.251549574</v>
       </c>
       <c r="F6" t="n">
-        <v>423963.0693042922</v>
+        <v>423854.7813623304</v>
       </c>
       <c r="G6" t="n">
-        <v>423963.0693042935</v>
+        <v>423854.7813623315</v>
       </c>
       <c r="H6" t="n">
-        <v>423963.0693042937</v>
+        <v>423854.7813623316</v>
       </c>
       <c r="I6" t="n">
-        <v>423963.0693042934</v>
+        <v>423854.7813623318</v>
       </c>
       <c r="J6" t="n">
-        <v>145631.2042199853</v>
+        <v>145522.9162780237</v>
       </c>
       <c r="K6" t="n">
-        <v>423963.0693042924</v>
+        <v>423854.7813623303</v>
       </c>
       <c r="L6" t="n">
-        <v>423963.0693042935</v>
+        <v>423854.7813623316</v>
       </c>
       <c r="M6" t="n">
-        <v>423852.7392928805</v>
+        <v>423744.4513509187</v>
       </c>
       <c r="N6" t="n">
-        <v>423963.0693042934</v>
+        <v>423854.7813623318</v>
       </c>
       <c r="O6" t="n">
-        <v>384908.170851152</v>
+        <v>384377.5048936222</v>
       </c>
       <c r="P6" t="n">
-        <v>384908.170851152</v>
+        <v>384377.5048936222</v>
       </c>
     </row>
   </sheetData>
@@ -26703,10 +26703,10 @@
         <v>93.96018996451492</v>
       </c>
       <c r="H2" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="I2" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="J2" t="n">
         <v>93.96018996451495</v>
@@ -26715,13 +26715,13 @@
         <v>93.96018996451495</v>
       </c>
       <c r="L2" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="M2" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="N2" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0.3811144514916954</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3811144514916954</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3811144514916063</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3811144514917062</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.3811144514917026</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.3811144514917026</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.3811144514917061</v>
-      </c>
       <c r="I3" t="n">
-        <v>0.3811144514917025</v>
+        <v>0.3811144514915975</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3811144514917025</v>
+        <v>0.3811144514916953</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3811144514917025</v>
+        <v>0.3811144514916953</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3811144514917025</v>
+        <v>0.3811144514916953</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3811144514917025</v>
+        <v>0.3811144514916953</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3811144514917025</v>
+        <v>0.3811144514916953</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3811144514917025</v>
+        <v>0.3811144514916953</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3811144514917061</v>
+        <v>0.3811144514916953</v>
       </c>
     </row>
     <row r="4">
@@ -26825,7 +26825,7 @@
         <v>776.9318259984509</v>
       </c>
       <c r="N4" t="n">
-        <v>776.931825998451</v>
+        <v>776.9318259984509</v>
       </c>
       <c r="O4" t="n">
         <v>776.9318259984509</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3811144514917062</v>
+        <v>0.3811144514916954</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4427296970068608</v>
+        <v>0.4427296970068526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4427296970069745</v>
+        <v>0.4427296970069662</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4427296970068608</v>
+        <v>0.4427296970068526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>208.1204245119982</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>201.8444825825779</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182383</v>
+        <v>199.7793754208897</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27605,7 +27605,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>40.22617251566533</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>100.8925049511646</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27794,7 +27794,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>249.4591561259416</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27842,7 +27842,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>174.2145624116609</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>197.9545981007953</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>337.1132457037577</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>53.73337658004171</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>38.41059566971089</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28611,7 +28611,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.51674264501764</v>
+        <v>37.51674264501766</v>
       </c>
       <c r="S17" t="n">
         <v>93.96018996451492</v>
@@ -28766,7 +28766,7 @@
         <v>93.96018996451492</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.96018996451544</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="R19" t="n">
         <v>93.96018996451492</v>
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="C20" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="D20" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="E20" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="F20" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="G20" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="H20" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="I20" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>37.51674264501764</v>
       </c>
       <c r="S20" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="T20" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="U20" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="V20" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="W20" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="X20" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="C22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="D22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="E22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="F22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="G22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="H22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="I22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="J22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="K22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="L22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="M22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="N22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="O22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451542</v>
       </c>
       <c r="P22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="R22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="S22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="T22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="U22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="V22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="W22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="X22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="C23" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="D23" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="E23" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="F23" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="G23" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="H23" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="I23" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29085,28 +29085,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.51674264501764</v>
+        <v>37.51674264501766</v>
       </c>
       <c r="S23" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="T23" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="U23" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="V23" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="W23" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="X23" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="C25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="D25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="E25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="F25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="G25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="H25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="I25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="J25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="K25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="L25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="M25" t="n">
-        <v>93.96018996451502</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="N25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="O25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="P25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451545</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="R25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="S25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="T25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="U25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="V25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="W25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="X25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451492</v>
       </c>
     </row>
     <row r="26">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="C32" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="D32" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="E32" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="F32" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="G32" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="H32" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="I32" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>37.51674264501764</v>
       </c>
       <c r="S32" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="T32" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="U32" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="V32" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="W32" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="X32" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="Y32" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="C34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="D34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="E34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="F34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="G34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="H34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="I34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="J34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="K34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451515</v>
       </c>
       <c r="L34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="M34" t="n">
-        <v>93.96018996451514</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="N34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="O34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="P34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="Q34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="R34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="S34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="T34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="U34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="V34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="W34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="X34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.96018996451495</v>
+        <v>93.96018996451494</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="C35" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="D35" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="E35" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="F35" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="G35" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="H35" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="I35" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>37.51674264501764</v>
       </c>
       <c r="S35" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="T35" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="U35" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="V35" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="W35" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="X35" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="Y35" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="C37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="D37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="E37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="F37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="G37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="H37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="I37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="J37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="K37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="L37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="M37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="N37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="O37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="P37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="Q37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="R37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="S37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="T37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="U37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="V37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="W37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="X37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="C38" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="D38" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="E38" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="F38" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="G38" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="H38" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="I38" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>37.51674264501764</v>
       </c>
       <c r="S38" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="T38" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="U38" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="V38" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="W38" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="X38" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="Y38" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="C40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="D40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="E40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="F40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="G40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="H40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="I40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="J40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="K40" t="n">
-        <v>93.96018996451527</v>
+        <v>93.96018996451515</v>
       </c>
       <c r="L40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="M40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="N40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="O40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="P40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="Q40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="R40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="S40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="T40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="U40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="V40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="W40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="X40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.96018996451492</v>
+        <v>93.96018996451494</v>
       </c>
     </row>
     <row r="41">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001532118397956607</v>
+        <v>0.001532118397956563</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0156908075430731</v>
+        <v>0.01569080754307266</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05906699453722213</v>
+        <v>0.05906699453722047</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1300366338785697</v>
+        <v>0.130036633878566</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1948912056640729</v>
+        <v>0.1948912056640673</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2417797740855374</v>
+        <v>0.2417797740855306</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2690265846451982</v>
+        <v>0.2690265846451906</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2733797160433925</v>
+        <v>0.2733797160433847</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2581447137237114</v>
+        <v>0.2581447137237041</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2203205407741577</v>
+        <v>0.2203205407741514</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1654515506473366</v>
+        <v>0.1654515506473319</v>
       </c>
       <c r="R11" t="n">
-        <v>0.09624193231564178</v>
+        <v>0.09624193231563906</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03491314799343621</v>
+        <v>0.03491314799343522</v>
       </c>
       <c r="T11" t="n">
-        <v>0.006706848287055049</v>
+        <v>0.00670684828705486</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0001225694718365285</v>
+        <v>0.000122569471836525</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0008197556126425379</v>
+        <v>0.0008197556126425148</v>
       </c>
       <c r="H12" t="n">
-        <v>0.007917113416837143</v>
+        <v>0.007917113416836919</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02822404192650843</v>
+        <v>0.02822404192650764</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1323725543450014</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1779912351046879</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2077073760629798</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2132047722547801</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.1950407136799057</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1046410848699492</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.05089675637091128</v>
+        <v>0.05089675637090984</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01522660096289976</v>
+        <v>0.01522660096289933</v>
       </c>
       <c r="T12" t="n">
-        <v>0.003304190386046017</v>
+        <v>0.003304190386045924</v>
       </c>
       <c r="U12" t="n">
-        <v>5.393129030543014e-05</v>
+        <v>5.393129030542862e-05</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0006872555682637324</v>
+        <v>0.000687255568263713</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006110326779653916</v>
+        <v>0.006110326779653744</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02066764927105843</v>
+        <v>0.02066764927105785</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04858896867624588</v>
+        <v>0.04858896867624451</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07984660147645907</v>
+        <v>0.07984660147645682</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1021761596671371</v>
+        <v>0.1021761596671342</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1077304342142867</v>
+        <v>0.1077304342142836</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1051688452780311</v>
+        <v>0.1051688452780281</v>
       </c>
       <c r="O13" t="n">
-        <v>0.09714045068513195</v>
+        <v>0.09714045068512922</v>
       </c>
       <c r="P13" t="n">
-        <v>0.08312043709255175</v>
+        <v>0.0831204370925494</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.05754828217524764</v>
+        <v>0.057548282175246</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03090150946029472</v>
+        <v>0.03090150946029385</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01197699022146886</v>
+        <v>0.01197699022146852</v>
       </c>
       <c r="T13" t="n">
-        <v>0.002936455609854129</v>
+        <v>0.002936455609854045</v>
       </c>
       <c r="U13" t="n">
-        <v>3.748666735983999e-05</v>
+        <v>3.748666735983893e-05</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001532118397956592</v>
+        <v>0.001532118397956563</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01569080754307296</v>
+        <v>0.01569080754307266</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05906699453722158</v>
+        <v>0.05906699453722046</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1300366338785685</v>
+        <v>0.130036633878566</v>
       </c>
       <c r="K14" t="n">
-        <v>0.194891205664071</v>
+        <v>0.1948912056640673</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2417797740855352</v>
+        <v>0.2417797740855306</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2690265846451957</v>
+        <v>0.2690265846451906</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2733797160433899</v>
+        <v>0.2733797160433847</v>
       </c>
       <c r="O14" t="n">
-        <v>0.258144713723709</v>
+        <v>0.2581447137237041</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2203205407741556</v>
+        <v>0.2203205407741514</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1654515506473351</v>
+        <v>0.1654515506473319</v>
       </c>
       <c r="R14" t="n">
-        <v>0.09624193231564088</v>
+        <v>0.09624193231563904</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03491314799343588</v>
+        <v>0.03491314799343521</v>
       </c>
       <c r="T14" t="n">
-        <v>0.006706848287054986</v>
+        <v>0.006706848287054859</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0001225694718365274</v>
+        <v>0.000122569471836525</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0008197556126425303</v>
+        <v>0.0008197556126425147</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00791711341683707</v>
+        <v>0.007917113416836919</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02822404192650817</v>
+        <v>0.02822404192650763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -32086,10 +32086,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.207707376062974</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.213204772254774</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32101,16 +32101,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0508967563709108</v>
+        <v>0.05089675637090983</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01522660096289962</v>
+        <v>0.01522660096289933</v>
       </c>
       <c r="T15" t="n">
-        <v>0.003304190386045987</v>
+        <v>0.003304190386045924</v>
       </c>
       <c r="U15" t="n">
-        <v>5.393129030542964e-05</v>
+        <v>5.393129030542861e-05</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.000687255568263726</v>
+        <v>0.0006872555682637129</v>
       </c>
       <c r="H16" t="n">
-        <v>0.006110326779653859</v>
+        <v>0.006110326779653743</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02066764927105824</v>
+        <v>0.02066764927105785</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04858896867624542</v>
+        <v>0.0485889686762445</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07984660147645833</v>
+        <v>0.07984660147645681</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1021761596671362</v>
+        <v>0.1021761596671342</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1077304342142857</v>
+        <v>0.1077304342142836</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1051688452780301</v>
+        <v>0.1051688452780281</v>
       </c>
       <c r="O16" t="n">
-        <v>0.09714045068513105</v>
+        <v>0.09714045068512921</v>
       </c>
       <c r="P16" t="n">
-        <v>0.08312043709255097</v>
+        <v>0.08312043709254939</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0575482821752471</v>
+        <v>0.057548282175246</v>
       </c>
       <c r="R16" t="n">
-        <v>0.03090150946029444</v>
+        <v>0.03090150946029385</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01197699022146875</v>
+        <v>0.01197699022146852</v>
       </c>
       <c r="T16" t="n">
-        <v>0.002936455609854101</v>
+        <v>0.002936455609854045</v>
       </c>
       <c r="U16" t="n">
-        <v>3.748666735983964e-05</v>
+        <v>3.748666735983893e-05</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001532118397956592</v>
+        <v>0.001532118397956205</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01569080754307296</v>
+        <v>0.01569080754306899</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05906699453722158</v>
+        <v>0.05906699453720666</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1300366338785685</v>
+        <v>0.1300366338785356</v>
       </c>
       <c r="K17" t="n">
-        <v>0.194891205664071</v>
+        <v>0.1948912056640218</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2417797740855352</v>
+        <v>0.241779774085474</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2690265846451957</v>
+        <v>0.2690265846451277</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2733797160433899</v>
+        <v>0.2733797160433208</v>
       </c>
       <c r="O17" t="n">
-        <v>0.258144713723709</v>
+        <v>0.2581447137236438</v>
       </c>
       <c r="P17" t="n">
-        <v>0.2203205407741556</v>
+        <v>0.2203205407740999</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1654515506473351</v>
+        <v>0.1654515506472933</v>
       </c>
       <c r="R17" t="n">
-        <v>0.09624193231564088</v>
+        <v>0.09624193231561656</v>
       </c>
       <c r="S17" t="n">
-        <v>0.03491314799343588</v>
+        <v>0.03491314799342706</v>
       </c>
       <c r="T17" t="n">
-        <v>0.006706848287054986</v>
+        <v>0.006706848287053291</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0001225694718365274</v>
+        <v>0.0001225694718364964</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0008197556126425303</v>
+        <v>0.0008197556126423231</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00791711341683707</v>
+        <v>0.007917113416835068</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02822404192650817</v>
+        <v>0.02822404192650104</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -32326,10 +32326,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.2132047722547242</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.1950407136798601</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32338,16 +32338,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0508967563709108</v>
+        <v>0.05089675637089794</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01522660096289962</v>
+        <v>0.01522660096289577</v>
       </c>
       <c r="T18" t="n">
-        <v>0.003304190386045987</v>
+        <v>0.003304190386045152</v>
       </c>
       <c r="U18" t="n">
-        <v>5.393129030542964e-05</v>
+        <v>5.393129030541601e-05</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000687255568263726</v>
+        <v>0.0006872555682635523</v>
       </c>
       <c r="H19" t="n">
-        <v>0.006110326779653859</v>
+        <v>0.006110326779652315</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02066764927105824</v>
+        <v>0.02066764927105302</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04858896867624542</v>
+        <v>0.04858896867623315</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07984660147645833</v>
+        <v>0.07984660147643816</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1021761596671362</v>
+        <v>0.1021761596671103</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1077304342142857</v>
+        <v>0.1077304342142585</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1051688452780301</v>
+        <v>0.1051688452780035</v>
       </c>
       <c r="O19" t="n">
-        <v>0.09714045068513105</v>
+        <v>0.0971404506851065</v>
       </c>
       <c r="P19" t="n">
-        <v>0.08312043709255097</v>
+        <v>0.08312043709252998</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0575482821752471</v>
+        <v>0.05754828217523256</v>
       </c>
       <c r="R19" t="n">
-        <v>0.03090150946029444</v>
+        <v>0.03090150946028663</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01197699022146875</v>
+        <v>0.01197699022146572</v>
       </c>
       <c r="T19" t="n">
-        <v>0.002936455609854101</v>
+        <v>0.002936455609853359</v>
       </c>
       <c r="U19" t="n">
-        <v>3.748666735983964e-05</v>
+        <v>3.748666735983017e-05</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001532118397956606</v>
+        <v>0.001532118397956607</v>
       </c>
       <c r="H20" t="n">
         <v>0.0156908075430731</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05906699453722212</v>
+        <v>0.05906699453722213</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1300366338785696</v>
+        <v>0.1300366338785697</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1948912056640728</v>
+        <v>0.1948912056640729</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2417797740855373</v>
+        <v>0.2417797740855374</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2690265846451981</v>
+        <v>0.2690265846451982</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2733797160433923</v>
+        <v>0.2733797160433925</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2581447137237113</v>
+        <v>0.2581447137237114</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2203205407741576</v>
+        <v>0.2203205407741577</v>
       </c>
       <c r="Q20" t="n">
         <v>0.1654515506473366</v>
       </c>
       <c r="R20" t="n">
-        <v>0.09624193231564175</v>
+        <v>0.09624193231564178</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0349131479934362</v>
+        <v>0.03491314799343621</v>
       </c>
       <c r="T20" t="n">
-        <v>0.006706848287055047</v>
+        <v>0.006706848287055049</v>
       </c>
       <c r="U20" t="n">
         <v>0.0001225694718365285</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0008197556126425376</v>
+        <v>0.0008197556126425379</v>
       </c>
       <c r="H21" t="n">
-        <v>0.007917113416837141</v>
+        <v>0.007917113416837143</v>
       </c>
       <c r="I21" t="n">
         <v>0.02822404192650843</v>
@@ -32557,7 +32557,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1779912351046878</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -32566,7 +32566,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1950407136799111</v>
+        <v>0.1950407136799112</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32575,7 +32575,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.05089675637091126</v>
+        <v>0.05089675637091128</v>
       </c>
       <c r="S21" t="n">
         <v>0.01522660096289976</v>
@@ -32584,7 +32584,7 @@
         <v>0.003304190386046017</v>
       </c>
       <c r="U21" t="n">
-        <v>5.393129030543013e-05</v>
+        <v>5.393129030543014e-05</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0006872555682637322</v>
+        <v>0.0006872555682637324</v>
       </c>
       <c r="H22" t="n">
-        <v>0.006110326779653914</v>
+        <v>0.006110326779653916</v>
       </c>
       <c r="I22" t="n">
         <v>0.02066764927105843</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04858896867624586</v>
+        <v>0.04858896867624588</v>
       </c>
       <c r="K22" t="n">
-        <v>0.07984660147645906</v>
+        <v>0.07984660147645907</v>
       </c>
       <c r="L22" t="n">
         <v>0.1021761596671371</v>
@@ -32642,16 +32642,16 @@
         <v>0.1077304342142867</v>
       </c>
       <c r="N22" t="n">
-        <v>0.105168845278031</v>
+        <v>0.1051688452780311</v>
       </c>
       <c r="O22" t="n">
-        <v>0.09714045068513193</v>
+        <v>0.09714045068513195</v>
       </c>
       <c r="P22" t="n">
-        <v>0.08312043709255172</v>
+        <v>0.08312043709255175</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.05754828217524761</v>
+        <v>0.05754828217524764</v>
       </c>
       <c r="R22" t="n">
         <v>0.03090150946029472</v>
@@ -32660,10 +32660,10 @@
         <v>0.01197699022146886</v>
       </c>
       <c r="T22" t="n">
-        <v>0.002936455609854128</v>
+        <v>0.002936455609854129</v>
       </c>
       <c r="U22" t="n">
-        <v>3.748666735983998e-05</v>
+        <v>3.748666735983999e-05</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001532118397956592</v>
+        <v>0.001532118397956169</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01569080754307295</v>
+        <v>0.01569080754306863</v>
       </c>
       <c r="I23" t="n">
-        <v>0.05906699453722157</v>
+        <v>0.05906699453720528</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1300366338785684</v>
+        <v>0.1300366338785326</v>
       </c>
       <c r="K23" t="n">
-        <v>0.194891205664071</v>
+        <v>0.1948912056640172</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2417797740855351</v>
+        <v>0.2417797740854684</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2690265846451956</v>
+        <v>0.2690265846451215</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2733797160433898</v>
+        <v>0.2733797160433145</v>
       </c>
       <c r="O23" t="n">
-        <v>0.258144713723709</v>
+        <v>0.2581447137236377</v>
       </c>
       <c r="P23" t="n">
-        <v>0.2203205407741555</v>
+        <v>0.2203205407740948</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.165451550647335</v>
+        <v>0.1654515506472894</v>
       </c>
       <c r="R23" t="n">
-        <v>0.09624193231564085</v>
+        <v>0.09624193231561431</v>
       </c>
       <c r="S23" t="n">
-        <v>0.03491314799343587</v>
+        <v>0.03491314799342625</v>
       </c>
       <c r="T23" t="n">
-        <v>0.006706848287054984</v>
+        <v>0.006706848287053135</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0001225694718365273</v>
+        <v>0.0001225694718364935</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0008197556126425301</v>
+        <v>0.000819755612642304</v>
       </c>
       <c r="H24" t="n">
-        <v>0.007917113416837067</v>
+        <v>0.007917113416834884</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02822404192650816</v>
+        <v>0.02822404192650038</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -32800,28 +32800,28 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.2132047722547192</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>0.1950407136798555</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1046410848699482</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.05089675637091078</v>
+        <v>0.05089675637089675</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01522660096289962</v>
+        <v>0.01522660096289542</v>
       </c>
       <c r="T24" t="n">
-        <v>0.003304190386045986</v>
+        <v>0.003304190386045075</v>
       </c>
       <c r="U24" t="n">
-        <v>5.393129030542963e-05</v>
+        <v>5.393129030541475e-05</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0006872555682637258</v>
+        <v>0.0006872555682635363</v>
       </c>
       <c r="H25" t="n">
-        <v>0.006110326779653857</v>
+        <v>0.006110326779652173</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02066764927105823</v>
+        <v>0.02066764927105253</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04858896867624541</v>
+        <v>0.04858896867623201</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07984660147645831</v>
+        <v>0.0798466014764363</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1021761596671361</v>
+        <v>0.102176159667108</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1077304342142857</v>
+        <v>0.107730434214256</v>
       </c>
       <c r="N25" t="n">
-        <v>0.10516884527803</v>
+        <v>0.105168845278001</v>
       </c>
       <c r="O25" t="n">
-        <v>0.09714045068513102</v>
+        <v>0.09714045068510424</v>
       </c>
       <c r="P25" t="n">
-        <v>0.08312043709255094</v>
+        <v>0.08312043709252803</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.05754828217524708</v>
+        <v>0.05754828217523121</v>
       </c>
       <c r="R25" t="n">
-        <v>0.03090150946029443</v>
+        <v>0.03090150946028591</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01197699022146874</v>
+        <v>0.01197699022146544</v>
       </c>
       <c r="T25" t="n">
-        <v>0.002936455609854101</v>
+        <v>0.002936455609853291</v>
       </c>
       <c r="U25" t="n">
-        <v>3.748666735983963e-05</v>
+        <v>3.74866673598293e-05</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001532118397956592</v>
+        <v>0.001532118397956563</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01569080754307295</v>
+        <v>0.01569080754307265</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05906699453722157</v>
+        <v>0.05906699453722044</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1300366338785684</v>
+        <v>0.1300366338785659</v>
       </c>
       <c r="K26" t="n">
-        <v>0.194891205664071</v>
+        <v>0.1948912056640673</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2417797740855351</v>
+        <v>0.2417797740855305</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2690265846451956</v>
+        <v>0.2690265846451905</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2733797160433898</v>
+        <v>0.2733797160433846</v>
       </c>
       <c r="O26" t="n">
-        <v>0.258144713723709</v>
+        <v>0.258144713723704</v>
       </c>
       <c r="P26" t="n">
-        <v>0.2203205407741555</v>
+        <v>0.2203205407741513</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.165451550647335</v>
+        <v>0.1654515506473319</v>
       </c>
       <c r="R26" t="n">
-        <v>0.09624193231564085</v>
+        <v>0.09624193231563902</v>
       </c>
       <c r="S26" t="n">
-        <v>0.03491314799343587</v>
+        <v>0.03491314799343521</v>
       </c>
       <c r="T26" t="n">
-        <v>0.006706848287054984</v>
+        <v>0.006706848287054857</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0001225694718365273</v>
+        <v>0.000122569471836525</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0008197556126425301</v>
+        <v>0.0008197556126425143</v>
       </c>
       <c r="H27" t="n">
-        <v>0.007917113416837067</v>
+        <v>0.007917113416836916</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02822404192650816</v>
+        <v>0.02822404192650763</v>
       </c>
       <c r="J27" t="n">
-        <v>0.07744892829795062</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1323725543450001</v>
+        <v>0.1323725543449976</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1779912351046862</v>
+        <v>0.1779912351046828</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.2077073760629739</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0.1950407136799093</v>
+        <v>0.1950407136799056</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1565373678211863</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.1046410848699482</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.05089675637091078</v>
+        <v>0.05089675637090981</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01522660096289962</v>
+        <v>0.01522660096289932</v>
       </c>
       <c r="T27" t="n">
-        <v>0.003304190386045986</v>
+        <v>0.003304190386045923</v>
       </c>
       <c r="U27" t="n">
-        <v>5.393129030542963e-05</v>
+        <v>5.39312903054286e-05</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0006872555682637258</v>
+        <v>0.0006872555682637127</v>
       </c>
       <c r="H28" t="n">
-        <v>0.006110326779653857</v>
+        <v>0.006110326779653741</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02066764927105823</v>
+        <v>0.02066764927105784</v>
       </c>
       <c r="J28" t="n">
-        <v>0.04858896867624541</v>
+        <v>0.04858896867624449</v>
       </c>
       <c r="K28" t="n">
-        <v>0.07984660147645831</v>
+        <v>0.07984660147645678</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1021761596671361</v>
+        <v>0.1021761596671342</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1077304342142857</v>
+        <v>0.1077304342142836</v>
       </c>
       <c r="N28" t="n">
-        <v>0.10516884527803</v>
+        <v>0.105168845278028</v>
       </c>
       <c r="O28" t="n">
-        <v>0.09714045068513102</v>
+        <v>0.09714045068512918</v>
       </c>
       <c r="P28" t="n">
-        <v>0.08312043709255094</v>
+        <v>0.08312043709254936</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.05754828217524708</v>
+        <v>0.05754828217524598</v>
       </c>
       <c r="R28" t="n">
-        <v>0.03090150946029443</v>
+        <v>0.03090150946029384</v>
       </c>
       <c r="S28" t="n">
-        <v>0.01197699022146874</v>
+        <v>0.01197699022146852</v>
       </c>
       <c r="T28" t="n">
-        <v>0.002936455609854101</v>
+        <v>0.002936455609854045</v>
       </c>
       <c r="U28" t="n">
-        <v>3.748666735983963e-05</v>
+        <v>3.748666735983892e-05</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.001532118397956592</v>
+        <v>0.001532118397956563</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01569080754307295</v>
+        <v>0.01569080754307265</v>
       </c>
       <c r="I29" t="n">
-        <v>0.05906699453722157</v>
+        <v>0.05906699453722044</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1300366338785684</v>
+        <v>0.1300366338785659</v>
       </c>
       <c r="K29" t="n">
-        <v>0.194891205664071</v>
+        <v>0.1948912056640673</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2417797740855351</v>
+        <v>0.2417797740855305</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2690265846451956</v>
+        <v>0.2690265846451905</v>
       </c>
       <c r="N29" t="n">
-        <v>0.2733797160433898</v>
+        <v>0.2733797160433846</v>
       </c>
       <c r="O29" t="n">
-        <v>0.258144713723709</v>
+        <v>0.258144713723704</v>
       </c>
       <c r="P29" t="n">
-        <v>0.2203205407741555</v>
+        <v>0.2203205407741513</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.165451550647335</v>
+        <v>0.1654515506473319</v>
       </c>
       <c r="R29" t="n">
-        <v>0.09624193231564085</v>
+        <v>0.09624193231563902</v>
       </c>
       <c r="S29" t="n">
-        <v>0.03491314799343587</v>
+        <v>0.03491314799343521</v>
       </c>
       <c r="T29" t="n">
-        <v>0.006706848287054984</v>
+        <v>0.006706848287054857</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0001225694718365273</v>
+        <v>0.000122569471836525</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0008197556126425301</v>
+        <v>0.0008197556126425143</v>
       </c>
       <c r="H30" t="n">
-        <v>0.007917113416837067</v>
+        <v>0.007917113416836916</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02822404192650816</v>
+        <v>0.02822404192650763</v>
       </c>
       <c r="J30" t="n">
-        <v>0.07744892829795062</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1323725543450001</v>
+        <v>0.1323725543449976</v>
       </c>
       <c r="L30" t="n">
-        <v>0.1779912351046862</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>0.2132047722547739</v>
       </c>
       <c r="O30" t="n">
-        <v>0.1950407136799093</v>
+        <v>0.1950407136799056</v>
       </c>
       <c r="P30" t="n">
-        <v>0.1565373678211863</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.1046410848699482</v>
+        <v>0.1046410848699462</v>
       </c>
       <c r="R30" t="n">
-        <v>0.05089675637091078</v>
+        <v>0.05089675637090981</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01522660096289962</v>
+        <v>0.01522660096289932</v>
       </c>
       <c r="T30" t="n">
-        <v>0.003304190386045986</v>
+        <v>0.003304190386045923</v>
       </c>
       <c r="U30" t="n">
-        <v>5.393129030542963e-05</v>
+        <v>5.39312903054286e-05</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0006872555682637258</v>
+        <v>0.0006872555682637127</v>
       </c>
       <c r="H31" t="n">
-        <v>0.006110326779653857</v>
+        <v>0.006110326779653741</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02066764927105823</v>
+        <v>0.02066764927105784</v>
       </c>
       <c r="J31" t="n">
-        <v>0.04858896867624541</v>
+        <v>0.04858896867624449</v>
       </c>
       <c r="K31" t="n">
-        <v>0.07984660147645831</v>
+        <v>0.07984660147645678</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1021761596671361</v>
+        <v>0.1021761596671342</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1077304342142857</v>
+        <v>0.1077304342142836</v>
       </c>
       <c r="N31" t="n">
-        <v>0.10516884527803</v>
+        <v>0.105168845278028</v>
       </c>
       <c r="O31" t="n">
-        <v>0.09714045068513102</v>
+        <v>0.09714045068512918</v>
       </c>
       <c r="P31" t="n">
-        <v>0.08312043709255094</v>
+        <v>0.08312043709254936</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.05754828217524708</v>
+        <v>0.05754828217524598</v>
       </c>
       <c r="R31" t="n">
-        <v>0.03090150946029443</v>
+        <v>0.03090150946029384</v>
       </c>
       <c r="S31" t="n">
-        <v>0.01197699022146874</v>
+        <v>0.01197699022146852</v>
       </c>
       <c r="T31" t="n">
-        <v>0.002936455609854101</v>
+        <v>0.002936455609854045</v>
       </c>
       <c r="U31" t="n">
-        <v>3.748666735983963e-05</v>
+        <v>3.748666735983892e-05</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.001532118397956592</v>
+        <v>0.001532118397956563</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01569080754307295</v>
+        <v>0.01569080754307265</v>
       </c>
       <c r="I32" t="n">
-        <v>0.05906699453722157</v>
+        <v>0.05906699453722044</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1300366338785684</v>
+        <v>0.1300366338785659</v>
       </c>
       <c r="K32" t="n">
-        <v>0.194891205664071</v>
+        <v>0.1948912056640673</v>
       </c>
       <c r="L32" t="n">
-        <v>0.2417797740855351</v>
+        <v>0.2417797740855305</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2690265846451956</v>
+        <v>0.2690265846451905</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2733797160433898</v>
+        <v>0.2733797160433846</v>
       </c>
       <c r="O32" t="n">
-        <v>0.258144713723709</v>
+        <v>0.258144713723704</v>
       </c>
       <c r="P32" t="n">
-        <v>0.2203205407741555</v>
+        <v>0.2203205407741513</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.165451550647335</v>
+        <v>0.1654515506473319</v>
       </c>
       <c r="R32" t="n">
-        <v>0.09624193231564085</v>
+        <v>0.09624193231563902</v>
       </c>
       <c r="S32" t="n">
-        <v>0.03491314799343587</v>
+        <v>0.03491314799343521</v>
       </c>
       <c r="T32" t="n">
-        <v>0.006706848287054984</v>
+        <v>0.006706848287054857</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0001225694718365273</v>
+        <v>0.000122569471836525</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0008197556126425301</v>
+        <v>0.0008197556126425143</v>
       </c>
       <c r="H33" t="n">
-        <v>0.007917113416837067</v>
+        <v>0.007917113416836916</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02822404192650816</v>
+        <v>0.02822404192650763</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -33511,28 +33511,28 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.2132047722547739</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>0.1950407136799056</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>0.1565373678211833</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.1046410848699462</v>
       </c>
       <c r="R33" t="n">
-        <v>0.05089675637091078</v>
+        <v>0.05089675637090981</v>
       </c>
       <c r="S33" t="n">
-        <v>0.01522660096289962</v>
+        <v>0.01522660096289932</v>
       </c>
       <c r="T33" t="n">
-        <v>0.003304190386045986</v>
+        <v>0.003304190386045923</v>
       </c>
       <c r="U33" t="n">
-        <v>5.393129030542963e-05</v>
+        <v>5.39312903054286e-05</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0006872555682637258</v>
+        <v>0.0006872555682637127</v>
       </c>
       <c r="H34" t="n">
-        <v>0.006110326779653857</v>
+        <v>0.006110326779653741</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02066764927105823</v>
+        <v>0.02066764927105784</v>
       </c>
       <c r="J34" t="n">
-        <v>0.04858896867624541</v>
+        <v>0.04858896867624449</v>
       </c>
       <c r="K34" t="n">
-        <v>0.07984660147645831</v>
+        <v>0.07984660147645678</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1021761596671361</v>
+        <v>0.1021761596671342</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1077304342142857</v>
+        <v>0.1077304342142836</v>
       </c>
       <c r="N34" t="n">
-        <v>0.10516884527803</v>
+        <v>0.105168845278028</v>
       </c>
       <c r="O34" t="n">
-        <v>0.09714045068513102</v>
+        <v>0.09714045068512918</v>
       </c>
       <c r="P34" t="n">
-        <v>0.08312043709255094</v>
+        <v>0.08312043709254936</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.05754828217524708</v>
+        <v>0.05754828217524598</v>
       </c>
       <c r="R34" t="n">
-        <v>0.03090150946029443</v>
+        <v>0.03090150946029384</v>
       </c>
       <c r="S34" t="n">
-        <v>0.01197699022146874</v>
+        <v>0.01197699022146852</v>
       </c>
       <c r="T34" t="n">
-        <v>0.002936455609854101</v>
+        <v>0.002936455609854045</v>
       </c>
       <c r="U34" t="n">
-        <v>3.748666735983963e-05</v>
+        <v>3.748666735983892e-05</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.001532118397956592</v>
+        <v>0.001532118397956563</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01569080754307295</v>
+        <v>0.01569080754307265</v>
       </c>
       <c r="I35" t="n">
-        <v>0.05906699453722157</v>
+        <v>0.05906699453722044</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1300366338785684</v>
+        <v>0.1300366338785659</v>
       </c>
       <c r="K35" t="n">
-        <v>0.194891205664071</v>
+        <v>0.1948912056640673</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2417797740855351</v>
+        <v>0.2417797740855305</v>
       </c>
       <c r="M35" t="n">
-        <v>0.2690265846451956</v>
+        <v>0.2690265846451905</v>
       </c>
       <c r="N35" t="n">
-        <v>0.2733797160433898</v>
+        <v>0.2733797160433846</v>
       </c>
       <c r="O35" t="n">
-        <v>0.258144713723709</v>
+        <v>0.258144713723704</v>
       </c>
       <c r="P35" t="n">
-        <v>0.2203205407741555</v>
+        <v>0.2203205407741513</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.165451550647335</v>
+        <v>0.1654515506473319</v>
       </c>
       <c r="R35" t="n">
-        <v>0.09624193231564085</v>
+        <v>0.09624193231563902</v>
       </c>
       <c r="S35" t="n">
-        <v>0.03491314799343587</v>
+        <v>0.03491314799343521</v>
       </c>
       <c r="T35" t="n">
-        <v>0.006706848287054984</v>
+        <v>0.006706848287054857</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0001225694718365273</v>
+        <v>0.000122569471836525</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0008197556126425301</v>
+        <v>0.0008197556126425143</v>
       </c>
       <c r="H36" t="n">
-        <v>0.007917113416837067</v>
+        <v>0.007917113416836916</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02822404192650816</v>
+        <v>0.02822404192650763</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -33742,7 +33742,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.1779912351046828</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -33751,25 +33751,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>0.1950407136799056</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.1565373678211833</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.1046410848699482</v>
+        <v>0.1046410848699462</v>
       </c>
       <c r="R36" t="n">
-        <v>0.05089675637091078</v>
+        <v>0.05089675637090981</v>
       </c>
       <c r="S36" t="n">
-        <v>0.01522660096289962</v>
+        <v>0.01522660096289932</v>
       </c>
       <c r="T36" t="n">
-        <v>0.003304190386045986</v>
+        <v>0.003304190386045923</v>
       </c>
       <c r="U36" t="n">
-        <v>5.393129030542963e-05</v>
+        <v>5.39312903054286e-05</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0006872555682637258</v>
+        <v>0.0006872555682637127</v>
       </c>
       <c r="H37" t="n">
-        <v>0.006110326779653857</v>
+        <v>0.006110326779653741</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02066764927105823</v>
+        <v>0.02066764927105784</v>
       </c>
       <c r="J37" t="n">
-        <v>0.04858896867624541</v>
+        <v>0.04858896867624449</v>
       </c>
       <c r="K37" t="n">
-        <v>0.07984660147645831</v>
+        <v>0.07984660147645678</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1021761596671361</v>
+        <v>0.1021761596671342</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1077304342142857</v>
+        <v>0.1077304342142836</v>
       </c>
       <c r="N37" t="n">
-        <v>0.10516884527803</v>
+        <v>0.105168845278028</v>
       </c>
       <c r="O37" t="n">
-        <v>0.09714045068513102</v>
+        <v>0.09714045068512918</v>
       </c>
       <c r="P37" t="n">
-        <v>0.08312043709255094</v>
+        <v>0.08312043709254936</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.05754828217524708</v>
+        <v>0.05754828217524598</v>
       </c>
       <c r="R37" t="n">
-        <v>0.03090150946029443</v>
+        <v>0.03090150946029384</v>
       </c>
       <c r="S37" t="n">
-        <v>0.01197699022146874</v>
+        <v>0.01197699022146852</v>
       </c>
       <c r="T37" t="n">
-        <v>0.002936455609854101</v>
+        <v>0.002936455609854045</v>
       </c>
       <c r="U37" t="n">
-        <v>3.748666735983963e-05</v>
+        <v>3.748666735983892e-05</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.001532118397956592</v>
+        <v>0.001532118397956563</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01569080754307295</v>
+        <v>0.01569080754307265</v>
       </c>
       <c r="I38" t="n">
-        <v>0.05906699453722157</v>
+        <v>0.05906699453722044</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1300366338785684</v>
+        <v>0.1300366338785659</v>
       </c>
       <c r="K38" t="n">
-        <v>0.194891205664071</v>
+        <v>0.1948912056640673</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2417797740855351</v>
+        <v>0.2417797740855305</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2690265846451956</v>
+        <v>0.2690265846451905</v>
       </c>
       <c r="N38" t="n">
-        <v>0.2733797160433898</v>
+        <v>0.2733797160433846</v>
       </c>
       <c r="O38" t="n">
-        <v>0.258144713723709</v>
+        <v>0.258144713723704</v>
       </c>
       <c r="P38" t="n">
-        <v>0.2203205407741555</v>
+        <v>0.2203205407741513</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.165451550647335</v>
+        <v>0.1654515506473319</v>
       </c>
       <c r="R38" t="n">
-        <v>0.09624193231564085</v>
+        <v>0.09624193231563902</v>
       </c>
       <c r="S38" t="n">
-        <v>0.03491314799343587</v>
+        <v>0.03491314799343521</v>
       </c>
       <c r="T38" t="n">
-        <v>0.006706848287054984</v>
+        <v>0.006706848287054857</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0001225694718365273</v>
+        <v>0.000122569471836525</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0008197556126425301</v>
+        <v>0.0008197556126425143</v>
       </c>
       <c r="H39" t="n">
-        <v>0.007917113416837067</v>
+        <v>0.007917113416836916</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02822404192650816</v>
+        <v>0.02822404192650763</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -33985,28 +33985,28 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>0.2132047722547739</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>0.1950407136799056</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>0.1565373678211833</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.1046410848699462</v>
       </c>
       <c r="R39" t="n">
-        <v>0.05089675637091078</v>
+        <v>0.05089675637090981</v>
       </c>
       <c r="S39" t="n">
-        <v>0.01522660096289962</v>
+        <v>0.01522660096289932</v>
       </c>
       <c r="T39" t="n">
-        <v>0.003304190386045986</v>
+        <v>0.003304190386045923</v>
       </c>
       <c r="U39" t="n">
-        <v>5.393129030542963e-05</v>
+        <v>5.39312903054286e-05</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0006872555682637258</v>
+        <v>0.0006872555682637127</v>
       </c>
       <c r="H40" t="n">
-        <v>0.006110326779653857</v>
+        <v>0.006110326779653741</v>
       </c>
       <c r="I40" t="n">
-        <v>0.02066764927105823</v>
+        <v>0.02066764927105784</v>
       </c>
       <c r="J40" t="n">
-        <v>0.04858896867624541</v>
+        <v>0.04858896867624449</v>
       </c>
       <c r="K40" t="n">
-        <v>0.07984660147645831</v>
+        <v>0.07984660147645678</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1021761596671361</v>
+        <v>0.1021761596671342</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1077304342142857</v>
+        <v>0.1077304342142836</v>
       </c>
       <c r="N40" t="n">
-        <v>0.10516884527803</v>
+        <v>0.105168845278028</v>
       </c>
       <c r="O40" t="n">
-        <v>0.09714045068513102</v>
+        <v>0.09714045068512918</v>
       </c>
       <c r="P40" t="n">
-        <v>0.08312043709255094</v>
+        <v>0.08312043709254936</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.05754828217524708</v>
+        <v>0.05754828217524598</v>
       </c>
       <c r="R40" t="n">
-        <v>0.03090150946029443</v>
+        <v>0.03090150946029384</v>
       </c>
       <c r="S40" t="n">
-        <v>0.01197699022146874</v>
+        <v>0.01197699022146852</v>
       </c>
       <c r="T40" t="n">
-        <v>0.002936455609854101</v>
+        <v>0.002936455609854045</v>
       </c>
       <c r="U40" t="n">
-        <v>3.748666735983963e-05</v>
+        <v>3.748666735983892e-05</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.001532118397956592</v>
+        <v>0.001532118397956563</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01569080754307295</v>
+        <v>0.01569080754307265</v>
       </c>
       <c r="I41" t="n">
-        <v>0.05906699453722157</v>
+        <v>0.05906699453722044</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1300366338785684</v>
+        <v>0.1300366338785659</v>
       </c>
       <c r="K41" t="n">
-        <v>0.194891205664071</v>
+        <v>0.1948912056640673</v>
       </c>
       <c r="L41" t="n">
-        <v>0.2417797740855351</v>
+        <v>0.2417797740855305</v>
       </c>
       <c r="M41" t="n">
-        <v>0.2690265846451956</v>
+        <v>0.2690265846451905</v>
       </c>
       <c r="N41" t="n">
-        <v>0.2733797160433898</v>
+        <v>0.2733797160433846</v>
       </c>
       <c r="O41" t="n">
-        <v>0.258144713723709</v>
+        <v>0.258144713723704</v>
       </c>
       <c r="P41" t="n">
-        <v>0.2203205407741555</v>
+        <v>0.2203205407741513</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.165451550647335</v>
+        <v>0.1654515506473319</v>
       </c>
       <c r="R41" t="n">
-        <v>0.09624193231564085</v>
+        <v>0.09624193231563902</v>
       </c>
       <c r="S41" t="n">
-        <v>0.03491314799343587</v>
+        <v>0.03491314799343521</v>
       </c>
       <c r="T41" t="n">
-        <v>0.006706848287054984</v>
+        <v>0.006706848287054857</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0001225694718365273</v>
+        <v>0.000122569471836525</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0008197556126425301</v>
+        <v>0.0008197556126425143</v>
       </c>
       <c r="H42" t="n">
-        <v>0.007917113416837067</v>
+        <v>0.007917113416836916</v>
       </c>
       <c r="I42" t="n">
-        <v>0.02822404192650816</v>
+        <v>0.02822404192650763</v>
       </c>
       <c r="J42" t="n">
-        <v>0.07744892829795062</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1323725543450001</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.1779912351046828</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>0.2077073760629739</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0.1950407136799093</v>
+        <v>0.1950407136799056</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.1046410848699482</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.05089675637091078</v>
+        <v>0.05089675637090981</v>
       </c>
       <c r="S42" t="n">
-        <v>0.01522660096289962</v>
+        <v>0.01522660096289932</v>
       </c>
       <c r="T42" t="n">
-        <v>0.003304190386045986</v>
+        <v>0.003304190386045923</v>
       </c>
       <c r="U42" t="n">
-        <v>5.393129030542963e-05</v>
+        <v>5.39312903054286e-05</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0006872555682637258</v>
+        <v>0.0006872555682637127</v>
       </c>
       <c r="H43" t="n">
-        <v>0.006110326779653857</v>
+        <v>0.006110326779653741</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02066764927105823</v>
+        <v>0.02066764927105784</v>
       </c>
       <c r="J43" t="n">
-        <v>0.04858896867624541</v>
+        <v>0.04858896867624449</v>
       </c>
       <c r="K43" t="n">
-        <v>0.07984660147645831</v>
+        <v>0.07984660147645678</v>
       </c>
       <c r="L43" t="n">
-        <v>0.1021761596671361</v>
+        <v>0.1021761596671342</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1077304342142857</v>
+        <v>0.1077304342142836</v>
       </c>
       <c r="N43" t="n">
-        <v>0.10516884527803</v>
+        <v>0.105168845278028</v>
       </c>
       <c r="O43" t="n">
-        <v>0.09714045068513102</v>
+        <v>0.09714045068512918</v>
       </c>
       <c r="P43" t="n">
-        <v>0.08312043709255094</v>
+        <v>0.08312043709254936</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.05754828217524708</v>
+        <v>0.05754828217524598</v>
       </c>
       <c r="R43" t="n">
-        <v>0.03090150946029443</v>
+        <v>0.03090150946029384</v>
       </c>
       <c r="S43" t="n">
-        <v>0.01197699022146874</v>
+        <v>0.01197699022146852</v>
       </c>
       <c r="T43" t="n">
-        <v>0.002936455609854101</v>
+        <v>0.002936455609854045</v>
       </c>
       <c r="U43" t="n">
-        <v>3.748666735983963e-05</v>
+        <v>3.748666735983892e-05</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.001532118397956606</v>
+        <v>0.001532118397956563</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0156908075430731</v>
+        <v>0.01569080754307265</v>
       </c>
       <c r="I44" t="n">
-        <v>0.05906699453722212</v>
+        <v>0.05906699453722044</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1300366338785696</v>
+        <v>0.1300366338785659</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1948912056640728</v>
+        <v>0.1948912056640673</v>
       </c>
       <c r="L44" t="n">
-        <v>0.2417797740855373</v>
+        <v>0.2417797740855305</v>
       </c>
       <c r="M44" t="n">
-        <v>0.2690265846451981</v>
+        <v>0.2690265846451905</v>
       </c>
       <c r="N44" t="n">
-        <v>0.2733797160433923</v>
+        <v>0.2733797160433846</v>
       </c>
       <c r="O44" t="n">
-        <v>0.2581447137237113</v>
+        <v>0.258144713723704</v>
       </c>
       <c r="P44" t="n">
-        <v>0.2203205407741576</v>
+        <v>0.2203205407741513</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.1654515506473366</v>
+        <v>0.1654515506473319</v>
       </c>
       <c r="R44" t="n">
-        <v>0.09624193231564175</v>
+        <v>0.09624193231563902</v>
       </c>
       <c r="S44" t="n">
-        <v>0.0349131479934362</v>
+        <v>0.03491314799343521</v>
       </c>
       <c r="T44" t="n">
-        <v>0.006706848287055047</v>
+        <v>0.006706848287054857</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0001225694718365285</v>
+        <v>0.000122569471836525</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0008197556126425376</v>
+        <v>0.0008197556126425143</v>
       </c>
       <c r="H45" t="n">
-        <v>0.007917113416837141</v>
+        <v>0.007917113416836916</v>
       </c>
       <c r="I45" t="n">
-        <v>0.02822404192650843</v>
+        <v>0.02822404192650763</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -34456,7 +34456,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.2077073760629798</v>
+        <v>0.2077073760629739</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -34471,16 +34471,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.05089675637091126</v>
+        <v>0.05089675637090981</v>
       </c>
       <c r="S45" t="n">
-        <v>0.01522660096289976</v>
+        <v>0.01522660096289932</v>
       </c>
       <c r="T45" t="n">
-        <v>0.003304190386046017</v>
+        <v>0.003304190386045923</v>
       </c>
       <c r="U45" t="n">
-        <v>5.393129030543013e-05</v>
+        <v>5.39312903054286e-05</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0006872555682637322</v>
+        <v>0.0006872555682637127</v>
       </c>
       <c r="H46" t="n">
-        <v>0.006110326779653914</v>
+        <v>0.006110326779653741</v>
       </c>
       <c r="I46" t="n">
-        <v>0.02066764927105843</v>
+        <v>0.02066764927105784</v>
       </c>
       <c r="J46" t="n">
-        <v>0.04858896867624586</v>
+        <v>0.04858896867624449</v>
       </c>
       <c r="K46" t="n">
-        <v>0.07984660147645906</v>
+        <v>0.07984660147645678</v>
       </c>
       <c r="L46" t="n">
-        <v>0.1021761596671371</v>
+        <v>0.1021761596671342</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1077304342142867</v>
+        <v>0.1077304342142836</v>
       </c>
       <c r="N46" t="n">
-        <v>0.105168845278031</v>
+        <v>0.105168845278028</v>
       </c>
       <c r="O46" t="n">
-        <v>0.09714045068513193</v>
+        <v>0.09714045068512918</v>
       </c>
       <c r="P46" t="n">
-        <v>0.08312043709255172</v>
+        <v>0.08312043709254936</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.05754828217524761</v>
+        <v>0.05754828217524598</v>
       </c>
       <c r="R46" t="n">
-        <v>0.03090150946029472</v>
+        <v>0.03090150946029384</v>
       </c>
       <c r="S46" t="n">
-        <v>0.01197699022146886</v>
+        <v>0.01197699022146852</v>
       </c>
       <c r="T46" t="n">
-        <v>0.002936455609854128</v>
+        <v>0.002936455609854045</v>
       </c>
       <c r="U46" t="n">
-        <v>3.748666735983998e-05</v>
+        <v>3.748666735983892e-05</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34707,7 +34707,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
@@ -34716,7 +34716,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>216.4828246711707</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>460.7196215199698</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34941,7 +34941,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35263,10 +35263,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>662.4019911217769</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="O9" t="n">
-        <v>147.0691510340258</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>323.1012069606343</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.6285830515827</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.3204847767511</v>
+        <v>484.3162238543688</v>
       </c>
       <c r="N12" t="n">
-        <v>137.0194712616591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>521.932699896489</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.8370567968805</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>634.3204847767511</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.6151958940317</v>
       </c>
       <c r="O15" t="n">
-        <v>249.6612884358635</v>
+        <v>398.2578113885363</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35816,7 +35816,7 @@
         <v>282.2412318515211</v>
       </c>
       <c r="N16" t="n">
-        <v>279.1053931847518</v>
+        <v>279.1053931847517</v>
       </c>
       <c r="O16" t="n">
         <v>258.4055799522789</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.2409183599676</v>
+        <v>146.2409183599675</v>
       </c>
       <c r="K17" t="n">
-        <v>362.8033316374437</v>
+        <v>362.8033316374436</v>
       </c>
       <c r="L17" t="n">
         <v>498.5451047422965</v>
       </c>
       <c r="M17" t="n">
-        <v>551.7850872357367</v>
+        <v>551.7850872357366</v>
       </c>
       <c r="N17" t="n">
         <v>533.4160904609545</v>
@@ -35901,10 +35901,10 @@
         <v>444.74259005951</v>
       </c>
       <c r="P17" t="n">
-        <v>351.9248580473619</v>
+        <v>351.9248580473618</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.8781385617065</v>
+        <v>186.8781385617064</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>424.8174230604542</v>
+        <v>396.388038471094</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>662.6151958940316</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>521.932699896489</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.9342914610321</v>
+        <v>63.93429146103209</v>
       </c>
       <c r="K19" t="n">
-        <v>176.7016942528014</v>
+        <v>176.7016942528013</v>
       </c>
       <c r="L19" t="n">
         <v>259.847860946202</v>
@@ -36053,7 +36053,7 @@
         <v>282.2412318515211</v>
       </c>
       <c r="N19" t="n">
-        <v>279.1053931847518</v>
+        <v>279.1053931847517</v>
       </c>
       <c r="O19" t="n">
         <v>258.4055799522789</v>
@@ -36062,7 +36062,7 @@
         <v>215.1303465395656</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.47450225684317</v>
+        <v>97.47450225684264</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.6285830515827</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>570.5526425486476</v>
       </c>
       <c r="N21" t="n">
-        <v>460.2379859695463</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.932699896489</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.93429146103213</v>
+        <v>63.9342914610321</v>
       </c>
       <c r="K22" t="n">
         <v>176.7016942528014</v>
@@ -36287,19 +36287,19 @@
         <v>259.847860946202</v>
       </c>
       <c r="M22" t="n">
-        <v>282.2412318515212</v>
+        <v>282.2412318515211</v>
       </c>
       <c r="N22" t="n">
         <v>279.1053931847518</v>
       </c>
       <c r="O22" t="n">
-        <v>258.405579952279</v>
+        <v>258.4055799522794</v>
       </c>
       <c r="P22" t="n">
-        <v>215.1303465395657</v>
+        <v>215.1303465395656</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.47450225684268</v>
+        <v>97.47450225684265</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.2409183599676</v>
+        <v>146.2409183599675</v>
       </c>
       <c r="K23" t="n">
-        <v>362.8033316374437</v>
+        <v>362.8033316374436</v>
       </c>
       <c r="L23" t="n">
-        <v>498.5451047422965</v>
+        <v>498.5451047422964</v>
       </c>
       <c r="M23" t="n">
-        <v>551.7850872357367</v>
+        <v>551.7850872357366</v>
       </c>
       <c r="N23" t="n">
         <v>533.4160904609545</v>
@@ -36375,10 +36375,10 @@
         <v>444.74259005951</v>
       </c>
       <c r="P23" t="n">
-        <v>351.9248580473619</v>
+        <v>351.9248580473618</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.8781385617065</v>
+        <v>186.8781385617064</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>510.6455962687985</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>662.6151958940316</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>521.932699896489</v>
       </c>
       <c r="P24" t="n">
-        <v>34.94144250856501</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.93429146103212</v>
+        <v>63.93429146103209</v>
       </c>
       <c r="K25" t="n">
         <v>176.7016942528014</v>
@@ -36524,19 +36524,19 @@
         <v>259.847860946202</v>
       </c>
       <c r="M25" t="n">
-        <v>282.2412318515213</v>
+        <v>282.2412318515211</v>
       </c>
       <c r="N25" t="n">
-        <v>279.1053931847518</v>
+        <v>279.1053931847517</v>
       </c>
       <c r="O25" t="n">
         <v>258.4055799522789</v>
       </c>
       <c r="P25" t="n">
-        <v>215.1303465395657</v>
+        <v>215.1303465395661</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.47450225684268</v>
+        <v>97.47450225684264</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>323.1012069606343</v>
       </c>
       <c r="L27" t="n">
         <v>488.6285830515827</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>634.3204847767511</v>
       </c>
       <c r="N27" t="n">
-        <v>287.0953100547486</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.932699896489</v>
       </c>
       <c r="P27" t="n">
-        <v>409.8750916268085</v>
+        <v>259.4039295471555</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
         <v>282.2412318515211</v>
       </c>
       <c r="N28" t="n">
-        <v>279.1053931847518</v>
+        <v>279.1053931847517</v>
       </c>
       <c r="O28" t="n">
         <v>258.4055799522789</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.3350067260024</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>323.1012069606343</v>
       </c>
       <c r="L30" t="n">
-        <v>488.6285830515827</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>73.18219042558965</v>
       </c>
       <c r="N30" t="n">
-        <v>483.7718737688002</v>
+        <v>662.6151958940317</v>
       </c>
       <c r="O30" t="n">
         <v>521.932699896489</v>
       </c>
       <c r="P30" t="n">
-        <v>409.8750916268085</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.8370567968805</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37001,7 +37001,7 @@
         <v>282.2412318515211</v>
       </c>
       <c r="N31" t="n">
-        <v>279.1053931847518</v>
+        <v>279.1053931847517</v>
       </c>
       <c r="O31" t="n">
         <v>258.4055799522789</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>510.3844178161073</v>
       </c>
       <c r="N33" t="n">
-        <v>374.3745992240524</v>
+        <v>662.6151958940317</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>521.932699896489</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.8750916268085</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.8370567968805</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>63.93429146103212</v>
+        <v>63.93429146103211</v>
       </c>
       <c r="K34" t="n">
-        <v>176.7016942528014</v>
+        <v>176.7016942528016</v>
       </c>
       <c r="L34" t="n">
         <v>259.847860946202</v>
       </c>
       <c r="M34" t="n">
-        <v>282.2412318515214</v>
+        <v>282.2412318515211</v>
       </c>
       <c r="N34" t="n">
-        <v>279.1053931847518</v>
+        <v>279.1053931847517</v>
       </c>
       <c r="O34" t="n">
         <v>258.4055799522789</v>
@@ -37247,7 +37247,7 @@
         <v>215.1303465395657</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.47450225684268</v>
+        <v>97.47450225684267</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>488.6285830515827</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>598.7688223657536</v>
+        <v>570.1134728608519</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>521.932699896489</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>409.8750916268085</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.8370567968805</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>63.9342914610321</v>
+        <v>63.93429146103212</v>
       </c>
       <c r="K37" t="n">
         <v>176.7016942528014</v>
@@ -37472,7 +37472,7 @@
         <v>259.847860946202</v>
       </c>
       <c r="M37" t="n">
-        <v>282.2412318515211</v>
+        <v>282.2412318515212</v>
       </c>
       <c r="N37" t="n">
         <v>279.1053931847517</v>
@@ -37481,10 +37481,10 @@
         <v>258.4055799522789</v>
       </c>
       <c r="P37" t="n">
-        <v>215.1303465395656</v>
+        <v>215.1303465395657</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.47450225684265</v>
+        <v>97.47450225684267</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>113.6734800660555</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>510.3844178161073</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>662.6151958940317</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>521.932699896489</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>409.8750916268085</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.8370567968805</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>63.9342914610321</v>
+        <v>63.93429146103211</v>
       </c>
       <c r="K40" t="n">
-        <v>176.7016942528017</v>
+        <v>176.7016942528016</v>
       </c>
       <c r="L40" t="n">
         <v>259.847860946202</v>
@@ -37712,16 +37712,16 @@
         <v>282.2412318515211</v>
       </c>
       <c r="N40" t="n">
-        <v>279.1053931847518</v>
+        <v>279.1053931847517</v>
       </c>
       <c r="O40" t="n">
         <v>258.4055799522789</v>
       </c>
       <c r="P40" t="n">
-        <v>215.1303465395656</v>
+        <v>215.1303465395657</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.47450225684265</v>
+        <v>97.47450225684267</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.3350067260024</v>
+        <v>34.36070318371753</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>488.6285830515827</v>
       </c>
       <c r="M42" t="n">
-        <v>144.8056182105835</v>
+        <v>634.3204847767511</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37876,7 +37876,7 @@
         <v>521.932699896489</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>121.1701565750507</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.51431229232773</v>
+        <v>3.514312292327729</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>34.73373513250217</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.73373513250206</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38195,7 +38195,7 @@
         <v>121.1701565750507</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.514312292327731</v>
+        <v>3.514312292327729</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
